--- a/user-data/out-ssc-net/out-ssc-net.xlsx
+++ b/user-data/out-ssc-net/out-ssc-net.xlsx
@@ -241,7 +241,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>

--- a/user-data/out-ssc-net/out-ssc-net.xlsx
+++ b/user-data/out-ssc-net/out-ssc-net.xlsx
@@ -189,7 +189,7 @@
     <t xml:space="preserve">Description: Net south-south development cooperation provided, US$.</t>
   </si>
   <si>
-    <t xml:space="preserve">Units of measure: US$</t>
+    <t xml:space="preserve">Units of measure: constant 2015 US$</t>
   </si>
   <si>
     <t xml:space="preserve">Source: Development Initiatives based on OECD DAC and national sources.</t>

--- a/user-data/out-ssc-net/out-ssc-net.xlsx
+++ b/user-data/out-ssc-net/out-ssc-net.xlsx
@@ -27,160 +27,160 @@
     <t xml:space="preserve">round</t>
   </si>
   <si>
+    <t xml:space="preserve">BR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brazil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulgaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Croatia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyprus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hungary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Israel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kazakhstan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuwait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latvia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liechtenstein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lithuania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other-donor-countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other donor countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russian Federation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saudi Arabia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taiwan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thailand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timor-Leste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkey</t>
+  </si>
+  <si>
     <t xml:space="preserve">AE</t>
   </si>
   <si>
     <t xml:space="preserve">UAE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulgaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brazil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">China</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyprus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Croatia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hungary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Israel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kuwait</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kazakhstan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liechtenstein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lithuania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latvia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mexico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">other-donor-countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other donor countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Romania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Russian Federation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saudi Arabia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thailand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Timor-Leste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turkey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taiwan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Africa</t>
   </si>
   <si>
     <t xml:space="preserve">Name: out-ssc-net</t>
@@ -655,10 +655,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>2000</v>
+        <v>2005</v>
       </c>
       <c r="D2" t="n">
-        <v>532697836</v>
+        <v>332430639</v>
       </c>
     </row>
     <row r="3">
@@ -669,10 +669,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>2001</v>
+        <v>2006</v>
       </c>
       <c r="D3" t="n">
-        <v>684785718</v>
+        <v>400904197</v>
       </c>
     </row>
     <row r="4">
@@ -683,10 +683,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>2002</v>
+        <v>2007</v>
       </c>
       <c r="D4" t="n">
-        <v>756886837</v>
+        <v>385423347</v>
       </c>
     </row>
     <row r="5">
@@ -697,10 +697,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>2003</v>
+        <v>2008</v>
       </c>
       <c r="D5" t="n">
-        <v>1105810693</v>
+        <v>376226644</v>
       </c>
     </row>
     <row r="6">
@@ -711,10 +711,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>2004</v>
+        <v>2009</v>
       </c>
       <c r="D6" t="n">
-        <v>530867715</v>
+        <v>400283308</v>
       </c>
     </row>
     <row r="7">
@@ -725,150 +725,150 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>2005</v>
+        <v>2010</v>
       </c>
       <c r="D7" t="n">
-        <v>541812523</v>
+        <v>705997674</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>2006</v>
+        <v>2000</v>
       </c>
       <c r="D8" t="n">
-        <v>813333300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>2007</v>
+        <v>2001</v>
       </c>
       <c r="D9" t="n">
-        <v>2340375297</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
-        <v>2008</v>
+        <v>2002</v>
       </c>
       <c r="D10" t="n">
-        <v>1162956904</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>2009</v>
+        <v>2003</v>
       </c>
       <c r="D11" t="n">
-        <v>898801431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C12" t="n">
-        <v>2010</v>
+        <v>2004</v>
       </c>
       <c r="D12" t="n">
-        <v>388962088</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C13" t="n">
-        <v>2011</v>
+        <v>2005</v>
       </c>
       <c r="D13" t="n">
-        <v>635357639</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C14" t="n">
-        <v>2012</v>
+        <v>2006</v>
       </c>
       <c r="D14" t="n">
-        <v>687521917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C15" t="n">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="D15" t="n">
-        <v>4863986342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C16" t="n">
-        <v>2014</v>
+        <v>2008</v>
       </c>
       <c r="D16" t="n">
-        <v>4557675421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C17" t="n">
-        <v>2015</v>
+        <v>2009</v>
       </c>
       <c r="D17" t="n">
-        <v>4381370000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -879,10 +879,10 @@
         <v>7</v>
       </c>
       <c r="C18" t="n">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>38063593</v>
       </c>
     </row>
     <row r="19">
@@ -893,10 +893,10 @@
         <v>7</v>
       </c>
       <c r="C19" t="n">
-        <v>2001</v>
+        <v>2011</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>42828271</v>
       </c>
     </row>
     <row r="20">
@@ -907,10 +907,10 @@
         <v>7</v>
       </c>
       <c r="C20" t="n">
-        <v>2002</v>
+        <v>2012</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>36188229</v>
       </c>
     </row>
     <row r="21">
@@ -921,10 +921,10 @@
         <v>7</v>
       </c>
       <c r="C21" t="n">
-        <v>2003</v>
+        <v>2013</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>44712607</v>
       </c>
     </row>
     <row r="22">
@@ -935,10 +935,10 @@
         <v>7</v>
       </c>
       <c r="C22" t="n">
-        <v>2004</v>
+        <v>2014</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>43671736</v>
       </c>
     </row>
     <row r="23">
@@ -949,150 +949,150 @@
         <v>7</v>
       </c>
       <c r="C23" t="n">
-        <v>2005</v>
+        <v>2015</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>40930000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C24" t="n">
-        <v>2006</v>
+        <v>2001</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1688937478</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C25" t="n">
-        <v>2007</v>
+        <v>2002</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1802433700</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C26" t="n">
-        <v>2008</v>
+        <v>2003</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1841524967</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C27" t="n">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1995012778</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C28" t="n">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="D28" t="n">
-        <v>38063593</v>
+        <v>2323672057</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C29" t="n">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="D29" t="n">
-        <v>42828271</v>
+        <v>2701846205</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C30" t="n">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="D30" t="n">
-        <v>36188229</v>
+        <v>3675042274</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C31" t="n">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="D31" t="n">
-        <v>44712607</v>
+        <v>3437802768</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C32" t="n">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="D32" t="n">
-        <v>43671736</v>
+        <v>4354977869</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C33" t="n">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="D33" t="n">
-        <v>40930000</v>
+        <v>4760393621</v>
       </c>
     </row>
     <row r="34">
@@ -1103,10 +1103,10 @@
         <v>9</v>
       </c>
       <c r="C34" t="n">
-        <v>2005</v>
+        <v>2011</v>
       </c>
       <c r="D34" t="n">
-        <v>332430639</v>
+        <v>5242065477</v>
       </c>
     </row>
     <row r="35">
@@ -1117,10 +1117,10 @@
         <v>9</v>
       </c>
       <c r="C35" t="n">
-        <v>2006</v>
+        <v>2012</v>
       </c>
       <c r="D35" t="n">
-        <v>400904197</v>
+        <v>6333645694</v>
       </c>
     </row>
     <row r="36">
@@ -1131,52 +1131,52 @@
         <v>9</v>
       </c>
       <c r="C36" t="n">
-        <v>2007</v>
+        <v>2013</v>
       </c>
       <c r="D36" t="n">
-        <v>385423347</v>
+        <v>7549860957</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C37" t="n">
-        <v>2008</v>
+        <v>2000</v>
       </c>
       <c r="D37" t="n">
-        <v>376226644</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C38" t="n">
-        <v>2009</v>
+        <v>2001</v>
       </c>
       <c r="D38" t="n">
-        <v>400283308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C39" t="n">
-        <v>2010</v>
+        <v>2002</v>
       </c>
       <c r="D39" t="n">
-        <v>705997674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1187,10 +1187,10 @@
         <v>11</v>
       </c>
       <c r="C40" t="n">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="D40" t="n">
-        <v>1688937478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1201,10 +1201,10 @@
         <v>11</v>
       </c>
       <c r="C41" t="n">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="D41" t="n">
-        <v>1802433700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1215,10 +1215,10 @@
         <v>11</v>
       </c>
       <c r="C42" t="n">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="D42" t="n">
-        <v>1841524967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1229,10 +1229,10 @@
         <v>11</v>
       </c>
       <c r="C43" t="n">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="D43" t="n">
-        <v>1995012778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1243,10 +1243,10 @@
         <v>11</v>
       </c>
       <c r="C44" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="D44" t="n">
-        <v>2323672057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1257,10 +1257,10 @@
         <v>11</v>
       </c>
       <c r="C45" t="n">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="D45" t="n">
-        <v>2701846205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1271,10 +1271,10 @@
         <v>11</v>
       </c>
       <c r="C46" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="D46" t="n">
-        <v>3675042274</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1285,10 +1285,10 @@
         <v>11</v>
       </c>
       <c r="C47" t="n">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="D47" t="n">
-        <v>3437802768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1299,10 +1299,10 @@
         <v>11</v>
       </c>
       <c r="C48" t="n">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="D48" t="n">
-        <v>4354977869</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1313,10 +1313,10 @@
         <v>11</v>
       </c>
       <c r="C49" t="n">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="D49" t="n">
-        <v>4760393621</v>
+        <v>19340422</v>
       </c>
     </row>
     <row r="50">
@@ -1327,10 +1327,10 @@
         <v>11</v>
       </c>
       <c r="C50" t="n">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="D50" t="n">
-        <v>5242065477</v>
+        <v>40591564</v>
       </c>
     </row>
     <row r="51">
@@ -1341,10 +1341,10 @@
         <v>11</v>
       </c>
       <c r="C51" t="n">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="D51" t="n">
-        <v>6333645694</v>
+        <v>64668416</v>
       </c>
     </row>
     <row r="52">
@@ -1355,10 +1355,10 @@
         <v>11</v>
       </c>
       <c r="C52" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D52" t="n">
-        <v>7549860957</v>
+        <v>51410000</v>
       </c>
     </row>
     <row r="53">
@@ -1862,7 +1862,7 @@
         <v>2003</v>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>25439987</v>
       </c>
     </row>
     <row r="89">
@@ -1876,7 +1876,7 @@
         <v>2004</v>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>72330202</v>
       </c>
     </row>
     <row r="90">
@@ -1890,7 +1890,7 @@
         <v>2005</v>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>99482494</v>
       </c>
     </row>
     <row r="91">
@@ -1904,7 +1904,7 @@
         <v>2006</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>150969789</v>
       </c>
     </row>
     <row r="92">
@@ -1918,7 +1918,7 @@
         <v>2007</v>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>86501017</v>
       </c>
     </row>
     <row r="93">
@@ -1932,7 +1932,7 @@
         <v>2008</v>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>81465316</v>
       </c>
     </row>
     <row r="94">
@@ -1946,7 +1946,7 @@
         <v>2009</v>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>98310029</v>
       </c>
     </row>
     <row r="95">
@@ -1960,7 +1960,7 @@
         <v>2010</v>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>96968862</v>
       </c>
     </row>
     <row r="96">
@@ -1974,7 +1974,7 @@
         <v>2011</v>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>112101269</v>
       </c>
     </row>
     <row r="97">
@@ -1988,7 +1988,7 @@
         <v>2012</v>
       </c>
       <c r="D97" t="n">
-        <v>19340422</v>
+        <v>102654059</v>
       </c>
     </row>
     <row r="98">
@@ -2002,7 +2002,7 @@
         <v>2013</v>
       </c>
       <c r="D98" t="n">
-        <v>40591564</v>
+        <v>107268009</v>
       </c>
     </row>
     <row r="99">
@@ -2016,7 +2016,7 @@
         <v>2014</v>
       </c>
       <c r="D99" t="n">
-        <v>64668416</v>
+        <v>121489433</v>
       </c>
     </row>
     <row r="100">
@@ -2030,7 +2030,7 @@
         <v>2015</v>
       </c>
       <c r="D100" t="n">
-        <v>51410000</v>
+        <v>155550000</v>
       </c>
     </row>
     <row r="101">
@@ -2041,10 +2041,10 @@
         <v>19</v>
       </c>
       <c r="C101" t="n">
-        <v>2000</v>
+        <v>2008</v>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>807516210</v>
       </c>
     </row>
     <row r="102">
@@ -2055,10 +2055,10 @@
         <v>19</v>
       </c>
       <c r="C102" t="n">
-        <v>2001</v>
+        <v>2009</v>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>704905469</v>
       </c>
     </row>
     <row r="103">
@@ -2069,10 +2069,10 @@
         <v>19</v>
       </c>
       <c r="C103" t="n">
-        <v>2002</v>
+        <v>2010</v>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>678268926</v>
       </c>
     </row>
     <row r="104">
@@ -2083,10 +2083,10 @@
         <v>19</v>
       </c>
       <c r="C104" t="n">
-        <v>2003</v>
+        <v>2011</v>
       </c>
       <c r="D104" t="n">
-        <v>25439987</v>
+        <v>744773829</v>
       </c>
     </row>
     <row r="105">
@@ -2097,10 +2097,10 @@
         <v>19</v>
       </c>
       <c r="C105" t="n">
-        <v>2004</v>
+        <v>2012</v>
       </c>
       <c r="D105" t="n">
-        <v>72330202</v>
+        <v>973574743</v>
       </c>
     </row>
     <row r="106">
@@ -2111,150 +2111,150 @@
         <v>19</v>
       </c>
       <c r="C106" t="n">
-        <v>2005</v>
+        <v>2013</v>
       </c>
       <c r="D106" t="n">
-        <v>99482494</v>
+        <v>1207653823</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B107" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C107" t="n">
-        <v>2006</v>
+        <v>2000</v>
       </c>
       <c r="D107" t="n">
-        <v>150969789</v>
+        <v>229664732</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B108" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C108" t="n">
-        <v>2007</v>
+        <v>2001</v>
       </c>
       <c r="D108" t="n">
-        <v>86501017</v>
+        <v>130832356</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B109" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C109" t="n">
-        <v>2008</v>
+        <v>2002</v>
       </c>
       <c r="D109" t="n">
-        <v>81465316</v>
+        <v>199654096</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B110" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C110" t="n">
-        <v>2009</v>
+        <v>2003</v>
       </c>
       <c r="D110" t="n">
-        <v>98310029</v>
+        <v>164442754</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B111" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C111" t="n">
-        <v>2010</v>
+        <v>2004</v>
       </c>
       <c r="D111" t="n">
-        <v>96968862</v>
+        <v>121425612</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B112" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C112" t="n">
-        <v>2011</v>
+        <v>2005</v>
       </c>
       <c r="D112" t="n">
-        <v>112101269</v>
+        <v>136696176</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B113" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C113" t="n">
-        <v>2012</v>
+        <v>2006</v>
       </c>
       <c r="D113" t="n">
-        <v>102654059</v>
+        <v>125840056</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B114" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C114" t="n">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="D114" t="n">
-        <v>107268009</v>
+        <v>142133709</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B115" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C115" t="n">
-        <v>2014</v>
+        <v>2008</v>
       </c>
       <c r="D115" t="n">
-        <v>121489433</v>
+        <v>150394213</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B116" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C116" t="n">
-        <v>2015</v>
+        <v>2009</v>
       </c>
       <c r="D116" t="n">
-        <v>155550000</v>
+        <v>142673674</v>
       </c>
     </row>
     <row r="117">
@@ -2265,10 +2265,10 @@
         <v>21</v>
       </c>
       <c r="C117" t="n">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="D117" t="n">
-        <v>229664732</v>
+        <v>155945423</v>
       </c>
     </row>
     <row r="118">
@@ -2279,10 +2279,10 @@
         <v>21</v>
       </c>
       <c r="C118" t="n">
-        <v>2001</v>
+        <v>2011</v>
       </c>
       <c r="D118" t="n">
-        <v>130832356</v>
+        <v>208966110</v>
       </c>
     </row>
     <row r="119">
@@ -2293,10 +2293,10 @@
         <v>21</v>
       </c>
       <c r="C119" t="n">
-        <v>2002</v>
+        <v>2012</v>
       </c>
       <c r="D119" t="n">
-        <v>199654096</v>
+        <v>190323138</v>
       </c>
     </row>
     <row r="120">
@@ -2307,10 +2307,10 @@
         <v>21</v>
       </c>
       <c r="C120" t="n">
-        <v>2003</v>
+        <v>2013</v>
       </c>
       <c r="D120" t="n">
-        <v>164442754</v>
+        <v>194879678</v>
       </c>
     </row>
     <row r="121">
@@ -2321,10 +2321,10 @@
         <v>21</v>
       </c>
       <c r="C121" t="n">
-        <v>2004</v>
+        <v>2014</v>
       </c>
       <c r="D121" t="n">
-        <v>121425612</v>
+        <v>189082168</v>
       </c>
     </row>
     <row r="122">
@@ -2335,150 +2335,150 @@
         <v>21</v>
       </c>
       <c r="C122" t="n">
-        <v>2005</v>
+        <v>2015</v>
       </c>
       <c r="D122" t="n">
-        <v>136696176</v>
+        <v>197930000</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B123" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C123" t="n">
-        <v>2006</v>
+        <v>2000</v>
       </c>
       <c r="D123" t="n">
-        <v>125840056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B124" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C124" t="n">
-        <v>2007</v>
+        <v>2001</v>
       </c>
       <c r="D124" t="n">
-        <v>142133709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B125" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C125" t="n">
-        <v>2008</v>
+        <v>2002</v>
       </c>
       <c r="D125" t="n">
-        <v>150394213</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B126" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C126" t="n">
-        <v>2009</v>
+        <v>2003</v>
       </c>
       <c r="D126" t="n">
-        <v>142673674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B127" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C127" t="n">
-        <v>2010</v>
+        <v>2004</v>
       </c>
       <c r="D127" t="n">
-        <v>155945423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B128" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C128" t="n">
-        <v>2011</v>
+        <v>2005</v>
       </c>
       <c r="D128" t="n">
-        <v>208966110</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B129" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C129" t="n">
-        <v>2012</v>
+        <v>2006</v>
       </c>
       <c r="D129" t="n">
-        <v>190323138</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B130" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C130" t="n">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="D130" t="n">
-        <v>194879678</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B131" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C131" t="n">
-        <v>2014</v>
+        <v>2008</v>
       </c>
       <c r="D131" t="n">
-        <v>189082168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B132" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C132" t="n">
-        <v>2015</v>
+        <v>2009</v>
       </c>
       <c r="D132" t="n">
-        <v>197930000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -2489,10 +2489,10 @@
         <v>23</v>
       </c>
       <c r="C133" t="n">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="D133" t="n">
-        <v>807516210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -2503,10 +2503,10 @@
         <v>23</v>
       </c>
       <c r="C134" t="n">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="D134" t="n">
-        <v>704905469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -2517,10 +2517,10 @@
         <v>23</v>
       </c>
       <c r="C135" t="n">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="D135" t="n">
-        <v>678268926</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -2531,10 +2531,10 @@
         <v>23</v>
       </c>
       <c r="C136" t="n">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="D136" t="n">
-        <v>744773829</v>
+        <v>6827408</v>
       </c>
     </row>
     <row r="137">
@@ -2545,10 +2545,10 @@
         <v>23</v>
       </c>
       <c r="C137" t="n">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="D137" t="n">
-        <v>973574743</v>
+        <v>26740683</v>
       </c>
     </row>
     <row r="138">
@@ -2559,10 +2559,10 @@
         <v>23</v>
       </c>
       <c r="C138" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D138" t="n">
-        <v>1207653823</v>
+        <v>42960000</v>
       </c>
     </row>
     <row r="139">
@@ -2828,7 +2828,7 @@
         <v>2002</v>
       </c>
       <c r="D157" t="n">
-        <v>0</v>
+        <v>2801562</v>
       </c>
     </row>
     <row r="158">
@@ -2842,7 +2842,7 @@
         <v>2003</v>
       </c>
       <c r="D158" t="n">
-        <v>0</v>
+        <v>1447053</v>
       </c>
     </row>
     <row r="159">
@@ -2856,7 +2856,7 @@
         <v>2004</v>
       </c>
       <c r="D159" t="n">
-        <v>0</v>
+        <v>12106448</v>
       </c>
     </row>
     <row r="160">
@@ -2870,7 +2870,7 @@
         <v>2005</v>
       </c>
       <c r="D160" t="n">
-        <v>0</v>
+        <v>14445290</v>
       </c>
     </row>
     <row r="161">
@@ -2884,7 +2884,7 @@
         <v>2006</v>
       </c>
       <c r="D161" t="n">
-        <v>0</v>
+        <v>14268615</v>
       </c>
     </row>
     <row r="162">
@@ -2898,7 +2898,7 @@
         <v>2007</v>
       </c>
       <c r="D162" t="n">
-        <v>0</v>
+        <v>14453703</v>
       </c>
     </row>
     <row r="163">
@@ -2912,7 +2912,7 @@
         <v>2008</v>
       </c>
       <c r="D163" t="n">
-        <v>0</v>
+        <v>16809370</v>
       </c>
     </row>
     <row r="164">
@@ -2926,7 +2926,7 @@
         <v>2009</v>
       </c>
       <c r="D164" t="n">
-        <v>0</v>
+        <v>18643426</v>
       </c>
     </row>
     <row r="165">
@@ -2940,7 +2940,7 @@
         <v>2010</v>
       </c>
       <c r="D165" t="n">
-        <v>0</v>
+        <v>14874358</v>
       </c>
     </row>
     <row r="166">
@@ -2954,7 +2954,7 @@
         <v>2011</v>
       </c>
       <c r="D166" t="n">
-        <v>0</v>
+        <v>16296171</v>
       </c>
     </row>
     <row r="167">
@@ -2968,7 +2968,7 @@
         <v>2012</v>
       </c>
       <c r="D167" t="n">
-        <v>0</v>
+        <v>18912645</v>
       </c>
     </row>
     <row r="168">
@@ -2982,7 +2982,7 @@
         <v>2013</v>
       </c>
       <c r="D168" t="n">
-        <v>6827408</v>
+        <v>20216675</v>
       </c>
     </row>
     <row r="169">
@@ -2996,7 +2996,7 @@
         <v>2014</v>
       </c>
       <c r="D169" t="n">
-        <v>26740683</v>
+        <v>21344030</v>
       </c>
     </row>
     <row r="170">
@@ -3010,7 +3010,7 @@
         <v>2015</v>
       </c>
       <c r="D170" t="n">
-        <v>42960000</v>
+        <v>23170000</v>
       </c>
     </row>
     <row r="171">
@@ -3500,7 +3500,7 @@
         <v>2002</v>
       </c>
       <c r="D205" t="n">
-        <v>2801562</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
@@ -3514,7 +3514,7 @@
         <v>2003</v>
       </c>
       <c r="D206" t="n">
-        <v>1447053</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
@@ -3528,7 +3528,7 @@
         <v>2004</v>
       </c>
       <c r="D207" t="n">
-        <v>12106448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
@@ -3542,7 +3542,7 @@
         <v>2005</v>
       </c>
       <c r="D208" t="n">
-        <v>14445290</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -3556,7 +3556,7 @@
         <v>2006</v>
       </c>
       <c r="D209" t="n">
-        <v>14268615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
@@ -3570,7 +3570,7 @@
         <v>2007</v>
       </c>
       <c r="D210" t="n">
-        <v>14453703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
@@ -3584,7 +3584,7 @@
         <v>2008</v>
       </c>
       <c r="D211" t="n">
-        <v>16809370</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
@@ -3598,7 +3598,7 @@
         <v>2009</v>
       </c>
       <c r="D212" t="n">
-        <v>18643426</v>
+        <v>12998613</v>
       </c>
     </row>
     <row r="213">
@@ -3612,7 +3612,7 @@
         <v>2010</v>
       </c>
       <c r="D213" t="n">
-        <v>14874358</v>
+        <v>12971701</v>
       </c>
     </row>
     <row r="214">
@@ -3626,7 +3626,7 @@
         <v>2011</v>
       </c>
       <c r="D214" t="n">
-        <v>16296171</v>
+        <v>17663402</v>
       </c>
     </row>
     <row r="215">
@@ -3640,7 +3640,7 @@
         <v>2012</v>
       </c>
       <c r="D215" t="n">
-        <v>18912645</v>
+        <v>16829122</v>
       </c>
     </row>
     <row r="216">
@@ -3654,7 +3654,7 @@
         <v>2013</v>
       </c>
       <c r="D216" t="n">
-        <v>20216675</v>
+        <v>16443380</v>
       </c>
     </row>
     <row r="217">
@@ -3668,7 +3668,7 @@
         <v>2014</v>
       </c>
       <c r="D217" t="n">
-        <v>21344030</v>
+        <v>18309296</v>
       </c>
     </row>
     <row r="218">
@@ -3682,7 +3682,7 @@
         <v>2015</v>
       </c>
       <c r="D218" t="n">
-        <v>23170000</v>
+        <v>16560000</v>
       </c>
     </row>
     <row r="219">
@@ -3693,10 +3693,10 @@
         <v>35</v>
       </c>
       <c r="C219" t="n">
-        <v>2000</v>
+        <v>2011</v>
       </c>
       <c r="D219" t="n">
-        <v>0</v>
+        <v>237549090</v>
       </c>
     </row>
     <row r="220">
@@ -3707,21 +3707,21 @@
         <v>35</v>
       </c>
       <c r="C220" t="n">
-        <v>2001</v>
+        <v>2012</v>
       </c>
       <c r="D220" t="n">
-        <v>0</v>
+        <v>251257546</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B221" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C221" t="n">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="D221" t="n">
         <v>0</v>
@@ -3729,13 +3729,13 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B222" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C222" t="n">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="D222" t="n">
         <v>0</v>
@@ -3743,13 +3743,13 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B223" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C223" t="n">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="D223" t="n">
         <v>0</v>
@@ -3757,13 +3757,13 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B224" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C224" t="n">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="D224" t="n">
         <v>0</v>
@@ -3771,13 +3771,13 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B225" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C225" t="n">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="D225" t="n">
         <v>0</v>
@@ -3785,13 +3785,13 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B226" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C226" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="D226" t="n">
         <v>0</v>
@@ -3799,13 +3799,13 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B227" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C227" t="n">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="D227" t="n">
         <v>0</v>
@@ -3813,100 +3813,100 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B228" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C228" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="D228" t="n">
-        <v>12998613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B229" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C229" t="n">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="D229" t="n">
-        <v>12971701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C230" t="n">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="D230" t="n">
-        <v>17663402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B231" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C231" t="n">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="D231" t="n">
-        <v>16829122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B232" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C232" t="n">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="D232" t="n">
-        <v>16443380</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B233" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C233" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D233" t="n">
-        <v>18309296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B234" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C234" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D234" t="n">
-        <v>16560000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
@@ -3917,10 +3917,10 @@
         <v>37</v>
       </c>
       <c r="C235" t="n">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="D235" t="n">
-        <v>237549090</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
@@ -3931,10 +3931,10 @@
         <v>37</v>
       </c>
       <c r="C236" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D236" t="n">
-        <v>251257546</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
@@ -4060,7 +4060,7 @@
         <v>2008</v>
       </c>
       <c r="D245" t="n">
-        <v>0</v>
+        <v>112884262</v>
       </c>
     </row>
     <row r="246">
@@ -4074,7 +4074,7 @@
         <v>2009</v>
       </c>
       <c r="D246" t="n">
-        <v>0</v>
+        <v>144830607</v>
       </c>
     </row>
     <row r="247">
@@ -4088,7 +4088,7 @@
         <v>2010</v>
       </c>
       <c r="D247" t="n">
-        <v>0</v>
+        <v>107393905</v>
       </c>
     </row>
     <row r="248">
@@ -4102,7 +4102,7 @@
         <v>2011</v>
       </c>
       <c r="D248" t="n">
-        <v>0</v>
+        <v>145027973</v>
       </c>
     </row>
     <row r="249">
@@ -4116,7 +4116,7 @@
         <v>2012</v>
       </c>
       <c r="D249" t="n">
-        <v>0</v>
+        <v>128969574</v>
       </c>
     </row>
     <row r="250">
@@ -4130,7 +4130,7 @@
         <v>2013</v>
       </c>
       <c r="D250" t="n">
-        <v>0</v>
+        <v>120563585</v>
       </c>
     </row>
     <row r="251">
@@ -4144,7 +4144,7 @@
         <v>2014</v>
       </c>
       <c r="D251" t="n">
-        <v>0</v>
+        <v>191651156</v>
       </c>
     </row>
     <row r="252">
@@ -4158,7 +4158,7 @@
         <v>2015</v>
       </c>
       <c r="D252" t="n">
-        <v>0</v>
+        <v>158090000</v>
       </c>
     </row>
     <row r="253">
@@ -4284,7 +4284,7 @@
         <v>2008</v>
       </c>
       <c r="D261" t="n">
-        <v>112884262</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262">
@@ -4298,7 +4298,7 @@
         <v>2009</v>
       </c>
       <c r="D262" t="n">
-        <v>144830607</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263">
@@ -4312,7 +4312,7 @@
         <v>2010</v>
       </c>
       <c r="D263" t="n">
-        <v>107393905</v>
+        <v>351856290</v>
       </c>
     </row>
     <row r="264">
@@ -4326,7 +4326,7 @@
         <v>2011</v>
       </c>
       <c r="D264" t="n">
-        <v>145027973</v>
+        <v>326545172</v>
       </c>
     </row>
     <row r="265">
@@ -4340,7 +4340,7 @@
         <v>2012</v>
       </c>
       <c r="D265" t="n">
-        <v>128969574</v>
+        <v>284596400</v>
       </c>
     </row>
     <row r="266">
@@ -4354,7 +4354,7 @@
         <v>2013</v>
       </c>
       <c r="D266" t="n">
-        <v>120563585</v>
+        <v>426452145</v>
       </c>
     </row>
     <row r="267">
@@ -4368,7 +4368,7 @@
         <v>2014</v>
       </c>
       <c r="D267" t="n">
-        <v>191651156</v>
+        <v>591639784</v>
       </c>
     </row>
     <row r="268">
@@ -4382,7 +4382,7 @@
         <v>2015</v>
       </c>
       <c r="D268" t="n">
-        <v>158090000</v>
+        <v>1161400000</v>
       </c>
     </row>
     <row r="269">
@@ -4396,7 +4396,7 @@
         <v>2000</v>
       </c>
       <c r="D269" t="n">
-        <v>0</v>
+        <v>339309994</v>
       </c>
     </row>
     <row r="270">
@@ -4410,7 +4410,7 @@
         <v>2001</v>
       </c>
       <c r="D270" t="n">
-        <v>0</v>
+        <v>266065408</v>
       </c>
     </row>
     <row r="271">
@@ -4424,7 +4424,7 @@
         <v>2002</v>
       </c>
       <c r="D271" t="n">
-        <v>0</v>
+        <v>3101959999</v>
       </c>
     </row>
     <row r="272">
@@ -4438,7 +4438,7 @@
         <v>2003</v>
       </c>
       <c r="D272" t="n">
-        <v>0</v>
+        <v>2634585835</v>
       </c>
     </row>
     <row r="273">
@@ -4452,7 +4452,7 @@
         <v>2004</v>
       </c>
       <c r="D273" t="n">
-        <v>0</v>
+        <v>1752876685</v>
       </c>
     </row>
     <row r="274">
@@ -4466,7 +4466,7 @@
         <v>2005</v>
       </c>
       <c r="D274" t="n">
-        <v>0</v>
+        <v>1006651402</v>
       </c>
     </row>
     <row r="275">
@@ -4480,7 +4480,7 @@
         <v>2006</v>
       </c>
       <c r="D275" t="n">
-        <v>0</v>
+        <v>1942294047</v>
       </c>
     </row>
     <row r="276">
@@ -4494,7 +4494,7 @@
         <v>2007</v>
       </c>
       <c r="D276" t="n">
-        <v>0</v>
+        <v>1381055868</v>
       </c>
     </row>
     <row r="277">
@@ -4508,7 +4508,7 @@
         <v>2008</v>
       </c>
       <c r="D277" t="n">
-        <v>0</v>
+        <v>4222531781</v>
       </c>
     </row>
     <row r="278">
@@ -4522,7 +4522,7 @@
         <v>2009</v>
       </c>
       <c r="D278" t="n">
-        <v>0</v>
+        <v>2746485658</v>
       </c>
     </row>
     <row r="279">
@@ -4536,7 +4536,7 @@
         <v>2010</v>
       </c>
       <c r="D279" t="n">
-        <v>351856290</v>
+        <v>3019001883</v>
       </c>
     </row>
     <row r="280">
@@ -4550,7 +4550,7 @@
         <v>2011</v>
       </c>
       <c r="D280" t="n">
-        <v>326545172</v>
+        <v>4162727093</v>
       </c>
     </row>
     <row r="281">
@@ -4564,7 +4564,7 @@
         <v>2012</v>
       </c>
       <c r="D281" t="n">
-        <v>284596400</v>
+        <v>1085816827</v>
       </c>
     </row>
     <row r="282">
@@ -4578,7 +4578,7 @@
         <v>2013</v>
       </c>
       <c r="D282" t="n">
-        <v>426452145</v>
+        <v>4723609196</v>
       </c>
     </row>
     <row r="283">
@@ -4592,7 +4592,7 @@
         <v>2014</v>
       </c>
       <c r="D283" t="n">
-        <v>591639784</v>
+        <v>11290141609</v>
       </c>
     </row>
     <row r="284">
@@ -4606,7 +4606,7 @@
         <v>2015</v>
       </c>
       <c r="D284" t="n">
-        <v>1161400000</v>
+        <v>6758220000</v>
       </c>
     </row>
     <row r="285">
@@ -4620,7 +4620,7 @@
         <v>2000</v>
       </c>
       <c r="D285" t="n">
-        <v>339309994</v>
+        <v>41485024</v>
       </c>
     </row>
     <row r="286">
@@ -4634,7 +4634,7 @@
         <v>2001</v>
       </c>
       <c r="D286" t="n">
-        <v>266065408</v>
+        <v>69964303</v>
       </c>
     </row>
     <row r="287">
@@ -4648,7 +4648,7 @@
         <v>2002</v>
       </c>
       <c r="D287" t="n">
-        <v>3101959999</v>
+        <v>115180398</v>
       </c>
     </row>
     <row r="288">
@@ -4662,7 +4662,7 @@
         <v>2003</v>
       </c>
       <c r="D288" t="n">
-        <v>2634585835</v>
+        <v>97226595</v>
       </c>
     </row>
     <row r="289">
@@ -4676,7 +4676,7 @@
         <v>2004</v>
       </c>
       <c r="D289" t="n">
-        <v>1752876685</v>
+        <v>73680805</v>
       </c>
     </row>
     <row r="290">
@@ -4690,7 +4690,7 @@
         <v>2005</v>
       </c>
       <c r="D290" t="n">
-        <v>1006651402</v>
+        <v>74756703</v>
       </c>
     </row>
     <row r="291">
@@ -4704,7 +4704,7 @@
         <v>2006</v>
       </c>
       <c r="D291" t="n">
-        <v>1942294047</v>
+        <v>96966589</v>
       </c>
     </row>
     <row r="292">
@@ -4718,7 +4718,7 @@
         <v>2007</v>
       </c>
       <c r="D292" t="n">
-        <v>1381055868</v>
+        <v>104727702</v>
       </c>
     </row>
     <row r="293">
@@ -4732,7 +4732,7 @@
         <v>2008</v>
       </c>
       <c r="D293" t="n">
-        <v>4222531781</v>
+        <v>146932364</v>
       </c>
     </row>
     <row r="294">
@@ -4746,7 +4746,7 @@
         <v>2009</v>
       </c>
       <c r="D294" t="n">
-        <v>2746485658</v>
+        <v>204494298</v>
       </c>
     </row>
     <row r="295">
@@ -4760,7 +4760,7 @@
         <v>2010</v>
       </c>
       <c r="D295" t="n">
-        <v>3019001883</v>
+        <v>155623508</v>
       </c>
     </row>
     <row r="296">
@@ -4774,7 +4774,7 @@
         <v>2011</v>
       </c>
       <c r="D296" t="n">
-        <v>4162727093</v>
+        <v>147645916</v>
       </c>
     </row>
     <row r="297">
@@ -4788,7 +4788,7 @@
         <v>2012</v>
       </c>
       <c r="D297" t="n">
-        <v>1085816827</v>
+        <v>162806226</v>
       </c>
     </row>
     <row r="298">
@@ -4802,35 +4802,35 @@
         <v>2013</v>
       </c>
       <c r="D298" t="n">
-        <v>4723609196</v>
+        <v>170812832</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B299" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C299" t="n">
-        <v>2014</v>
+        <v>2000</v>
       </c>
       <c r="D299" t="n">
-        <v>11290141609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B300" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C300" t="n">
-        <v>2015</v>
+        <v>2001</v>
       </c>
       <c r="D300" t="n">
-        <v>6758220000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301">
@@ -4841,7 +4841,7 @@
         <v>47</v>
       </c>
       <c r="C301" t="n">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="D301" t="n">
         <v>0</v>
@@ -4855,7 +4855,7 @@
         <v>47</v>
       </c>
       <c r="C302" t="n">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="D302" t="n">
         <v>0</v>
@@ -4869,10 +4869,10 @@
         <v>47</v>
       </c>
       <c r="C303" t="n">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="D303" t="n">
-        <v>0</v>
+        <v>460986595</v>
       </c>
     </row>
     <row r="304">
@@ -4883,10 +4883,10 @@
         <v>47</v>
       </c>
       <c r="C304" t="n">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="D304" t="n">
-        <v>0</v>
+        <v>513296813</v>
       </c>
     </row>
     <row r="305">
@@ -4897,10 +4897,10 @@
         <v>47</v>
       </c>
       <c r="C305" t="n">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="D305" t="n">
-        <v>0</v>
+        <v>533086959</v>
       </c>
     </row>
     <row r="306">
@@ -4911,10 +4911,10 @@
         <v>47</v>
       </c>
       <c r="C306" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="D306" t="n">
-        <v>0</v>
+        <v>495937823</v>
       </c>
     </row>
     <row r="307">
@@ -4925,10 +4925,10 @@
         <v>47</v>
       </c>
       <c r="C307" t="n">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="D307" t="n">
-        <v>76612072</v>
+        <v>399848859</v>
       </c>
     </row>
     <row r="308">
@@ -4939,10 +4939,10 @@
         <v>47</v>
       </c>
       <c r="C308" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="D308" t="n">
-        <v>64555091</v>
+        <v>390563820</v>
       </c>
     </row>
     <row r="309">
@@ -4953,10 +4953,10 @@
         <v>47</v>
       </c>
       <c r="C309" t="n">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="D309" t="n">
-        <v>162643662</v>
+        <v>358025804</v>
       </c>
     </row>
     <row r="310">
@@ -4967,10 +4967,10 @@
         <v>47</v>
       </c>
       <c r="C310" t="n">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="D310" t="n">
-        <v>36538756</v>
+        <v>337446206</v>
       </c>
     </row>
     <row r="311">
@@ -4981,10 +4981,10 @@
         <v>47</v>
       </c>
       <c r="C311" t="n">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="D311" t="n">
-        <v>4198413</v>
+        <v>275770209</v>
       </c>
     </row>
     <row r="312">
@@ -4995,10 +4995,10 @@
         <v>47</v>
       </c>
       <c r="C312" t="n">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="D312" t="n">
-        <v>20175709</v>
+        <v>244703448</v>
       </c>
     </row>
     <row r="313">
@@ -5009,10 +5009,10 @@
         <v>47</v>
       </c>
       <c r="C313" t="n">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="D313" t="n">
-        <v>10406324</v>
+        <v>245779975</v>
       </c>
     </row>
     <row r="314">
@@ -5023,38 +5023,38 @@
         <v>47</v>
       </c>
       <c r="C314" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D314" t="n">
-        <v>32735065</v>
+        <v>254760000</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B315" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C315" t="n">
-        <v>2014</v>
+        <v>2000</v>
       </c>
       <c r="D315" t="n">
-        <v>61872771</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B316" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C316" t="n">
-        <v>2015</v>
+        <v>2001</v>
       </c>
       <c r="D316" t="n">
-        <v>62420000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317">
@@ -5065,7 +5065,7 @@
         <v>49</v>
       </c>
       <c r="C317" t="n">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="D317" t="n">
         <v>0</v>
@@ -5079,7 +5079,7 @@
         <v>49</v>
       </c>
       <c r="C318" t="n">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="D318" t="n">
         <v>0</v>
@@ -5093,7 +5093,7 @@
         <v>49</v>
       </c>
       <c r="C319" t="n">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="D319" t="n">
         <v>0</v>
@@ -5107,7 +5107,7 @@
         <v>49</v>
       </c>
       <c r="C320" t="n">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="D320" t="n">
         <v>0</v>
@@ -5121,10 +5121,10 @@
         <v>49</v>
       </c>
       <c r="C321" t="n">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="D321" t="n">
-        <v>0</v>
+        <v>76612072</v>
       </c>
     </row>
     <row r="322">
@@ -5135,10 +5135,10 @@
         <v>49</v>
       </c>
       <c r="C322" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="D322" t="n">
-        <v>0</v>
+        <v>64555091</v>
       </c>
     </row>
     <row r="323">
@@ -5149,10 +5149,10 @@
         <v>49</v>
       </c>
       <c r="C323" t="n">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="D323" t="n">
-        <v>0</v>
+        <v>162643662</v>
       </c>
     </row>
     <row r="324">
@@ -5163,10 +5163,10 @@
         <v>49</v>
       </c>
       <c r="C324" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="D324" t="n">
-        <v>0</v>
+        <v>36538756</v>
       </c>
     </row>
     <row r="325">
@@ -5177,10 +5177,10 @@
         <v>49</v>
       </c>
       <c r="C325" t="n">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="D325" t="n">
-        <v>0</v>
+        <v>4198413</v>
       </c>
     </row>
     <row r="326">
@@ -5191,10 +5191,10 @@
         <v>49</v>
       </c>
       <c r="C326" t="n">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="D326" t="n">
-        <v>0</v>
+        <v>20175709</v>
       </c>
     </row>
     <row r="327">
@@ -5205,10 +5205,10 @@
         <v>49</v>
       </c>
       <c r="C327" t="n">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="D327" t="n">
-        <v>0</v>
+        <v>10406324</v>
       </c>
     </row>
     <row r="328">
@@ -5219,10 +5219,10 @@
         <v>49</v>
       </c>
       <c r="C328" t="n">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="D328" t="n">
-        <v>0</v>
+        <v>32735065</v>
       </c>
     </row>
     <row r="329">
@@ -5233,10 +5233,10 @@
         <v>49</v>
       </c>
       <c r="C329" t="n">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="D329" t="n">
-        <v>0</v>
+        <v>61872771</v>
       </c>
     </row>
     <row r="330">
@@ -5247,38 +5247,38 @@
         <v>49</v>
       </c>
       <c r="C330" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D330" t="n">
-        <v>0</v>
+        <v>62420000</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B331" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C331" t="n">
-        <v>2014</v>
+        <v>2000</v>
       </c>
       <c r="D331" t="n">
-        <v>2225256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B332" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C332" t="n">
-        <v>2015</v>
+        <v>2001</v>
       </c>
       <c r="D332" t="n">
-        <v>4000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333">
@@ -5289,10 +5289,10 @@
         <v>51</v>
       </c>
       <c r="C333" t="n">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="D333" t="n">
-        <v>121316204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334">
@@ -5303,10 +5303,10 @@
         <v>51</v>
       </c>
       <c r="C334" t="n">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="D334" t="n">
-        <v>122273965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335">
@@ -5317,10 +5317,10 @@
         <v>51</v>
       </c>
       <c r="C335" t="n">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="D335" t="n">
-        <v>124672676</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336">
@@ -5331,10 +5331,10 @@
         <v>51</v>
       </c>
       <c r="C336" t="n">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="D336" t="n">
-        <v>91703315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337">
@@ -5345,10 +5345,10 @@
         <v>51</v>
       </c>
       <c r="C337" t="n">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="D337" t="n">
-        <v>395537416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338">
@@ -5359,10 +5359,10 @@
         <v>51</v>
       </c>
       <c r="C338" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="D338" t="n">
-        <v>613371618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339">
@@ -5373,10 +5373,10 @@
         <v>51</v>
       </c>
       <c r="C339" t="n">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="D339" t="n">
-        <v>711520402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340">
@@ -5387,10 +5387,10 @@
         <v>51</v>
       </c>
       <c r="C340" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="D340" t="n">
-        <v>513471263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341">
@@ -5401,10 +5401,10 @@
         <v>51</v>
       </c>
       <c r="C341" t="n">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="D341" t="n">
-        <v>597952553</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342">
@@ -5415,10 +5415,10 @@
         <v>51</v>
       </c>
       <c r="C342" t="n">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="D342" t="n">
-        <v>607935690</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343">
@@ -5429,10 +5429,10 @@
         <v>51</v>
       </c>
       <c r="C343" t="n">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="D343" t="n">
-        <v>763144500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344">
@@ -5443,10 +5443,10 @@
         <v>51</v>
       </c>
       <c r="C344" t="n">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="D344" t="n">
-        <v>1031437961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345">
@@ -5457,10 +5457,10 @@
         <v>51</v>
       </c>
       <c r="C345" t="n">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="D345" t="n">
-        <v>2057707461</v>
+        <v>2225256</v>
       </c>
     </row>
     <row r="346">
@@ -5471,38 +5471,38 @@
         <v>51</v>
       </c>
       <c r="C346" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D346" t="n">
-        <v>2690631183</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B347" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C347" t="n">
-        <v>2014</v>
+        <v>2000</v>
       </c>
       <c r="D347" t="n">
-        <v>3098550450</v>
+        <v>121316204</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B348" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C348" t="n">
-        <v>2015</v>
+        <v>2001</v>
       </c>
       <c r="D348" t="n">
-        <v>3919140000</v>
+        <v>122273965</v>
       </c>
     </row>
     <row r="349">
@@ -5513,10 +5513,10 @@
         <v>53</v>
       </c>
       <c r="C349" t="n">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="D349" t="n">
-        <v>0</v>
+        <v>124672676</v>
       </c>
     </row>
     <row r="350">
@@ -5527,10 +5527,10 @@
         <v>53</v>
       </c>
       <c r="C350" t="n">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="D350" t="n">
-        <v>0</v>
+        <v>91703315</v>
       </c>
     </row>
     <row r="351">
@@ -5541,10 +5541,10 @@
         <v>53</v>
       </c>
       <c r="C351" t="n">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="D351" t="n">
-        <v>0</v>
+        <v>395537416</v>
       </c>
     </row>
     <row r="352">
@@ -5555,10 +5555,10 @@
         <v>53</v>
       </c>
       <c r="C352" t="n">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="D352" t="n">
-        <v>0</v>
+        <v>613371618</v>
       </c>
     </row>
     <row r="353">
@@ -5569,10 +5569,10 @@
         <v>53</v>
       </c>
       <c r="C353" t="n">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="D353" t="n">
-        <v>460986595</v>
+        <v>711520402</v>
       </c>
     </row>
     <row r="354">
@@ -5583,10 +5583,10 @@
         <v>53</v>
       </c>
       <c r="C354" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="D354" t="n">
-        <v>513296813</v>
+        <v>513471263</v>
       </c>
     </row>
     <row r="355">
@@ -5597,10 +5597,10 @@
         <v>53</v>
       </c>
       <c r="C355" t="n">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="D355" t="n">
-        <v>533086959</v>
+        <v>597952553</v>
       </c>
     </row>
     <row r="356">
@@ -5611,10 +5611,10 @@
         <v>53</v>
       </c>
       <c r="C356" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="D356" t="n">
-        <v>495937823</v>
+        <v>607935690</v>
       </c>
     </row>
     <row r="357">
@@ -5625,10 +5625,10 @@
         <v>53</v>
       </c>
       <c r="C357" t="n">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="D357" t="n">
-        <v>399848859</v>
+        <v>763144500</v>
       </c>
     </row>
     <row r="358">
@@ -5639,10 +5639,10 @@
         <v>53</v>
       </c>
       <c r="C358" t="n">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="D358" t="n">
-        <v>390563820</v>
+        <v>1031437961</v>
       </c>
     </row>
     <row r="359">
@@ -5653,10 +5653,10 @@
         <v>53</v>
       </c>
       <c r="C359" t="n">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="D359" t="n">
-        <v>358025804</v>
+        <v>2057707461</v>
       </c>
     </row>
     <row r="360">
@@ -5667,10 +5667,10 @@
         <v>53</v>
       </c>
       <c r="C360" t="n">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="D360" t="n">
-        <v>337446206</v>
+        <v>2690631183</v>
       </c>
     </row>
     <row r="361">
@@ -5681,10 +5681,10 @@
         <v>53</v>
       </c>
       <c r="C361" t="n">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="D361" t="n">
-        <v>275770209</v>
+        <v>3098550450</v>
       </c>
     </row>
     <row r="362">
@@ -5695,38 +5695,38 @@
         <v>53</v>
       </c>
       <c r="C362" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D362" t="n">
-        <v>244703448</v>
+        <v>3919140000</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B363" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C363" t="n">
-        <v>2014</v>
+        <v>2000</v>
       </c>
       <c r="D363" t="n">
-        <v>245779975</v>
+        <v>532697836</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B364" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C364" t="n">
-        <v>2015</v>
+        <v>2001</v>
       </c>
       <c r="D364" t="n">
-        <v>254760000</v>
+        <v>684785718</v>
       </c>
     </row>
     <row r="365">
@@ -5737,10 +5737,10 @@
         <v>55</v>
       </c>
       <c r="C365" t="n">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="D365" t="n">
-        <v>41485024</v>
+        <v>756886837</v>
       </c>
     </row>
     <row r="366">
@@ -5751,10 +5751,10 @@
         <v>55</v>
       </c>
       <c r="C366" t="n">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="D366" t="n">
-        <v>69964303</v>
+        <v>1105810693</v>
       </c>
     </row>
     <row r="367">
@@ -5765,10 +5765,10 @@
         <v>55</v>
       </c>
       <c r="C367" t="n">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="D367" t="n">
-        <v>115180398</v>
+        <v>530867715</v>
       </c>
     </row>
     <row r="368">
@@ -5779,10 +5779,10 @@
         <v>55</v>
       </c>
       <c r="C368" t="n">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="D368" t="n">
-        <v>97226595</v>
+        <v>541812523</v>
       </c>
     </row>
     <row r="369">
@@ -5793,10 +5793,10 @@
         <v>55</v>
       </c>
       <c r="C369" t="n">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="D369" t="n">
-        <v>73680805</v>
+        <v>813333300</v>
       </c>
     </row>
     <row r="370">
@@ -5807,10 +5807,10 @@
         <v>55</v>
       </c>
       <c r="C370" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="D370" t="n">
-        <v>74756703</v>
+        <v>2340375297</v>
       </c>
     </row>
     <row r="371">
@@ -5821,10 +5821,10 @@
         <v>55</v>
       </c>
       <c r="C371" t="n">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="D371" t="n">
-        <v>96966589</v>
+        <v>1162956904</v>
       </c>
     </row>
     <row r="372">
@@ -5835,10 +5835,10 @@
         <v>55</v>
       </c>
       <c r="C372" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="D372" t="n">
-        <v>104727702</v>
+        <v>898801431</v>
       </c>
     </row>
     <row r="373">
@@ -5849,10 +5849,10 @@
         <v>55</v>
       </c>
       <c r="C373" t="n">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="D373" t="n">
-        <v>146932364</v>
+        <v>388962088</v>
       </c>
     </row>
     <row r="374">
@@ -5863,10 +5863,10 @@
         <v>55</v>
       </c>
       <c r="C374" t="n">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="D374" t="n">
-        <v>204494298</v>
+        <v>635357639</v>
       </c>
     </row>
     <row r="375">
@@ -5877,10 +5877,10 @@
         <v>55</v>
       </c>
       <c r="C375" t="n">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="D375" t="n">
-        <v>155623508</v>
+        <v>687521917</v>
       </c>
     </row>
     <row r="376">
@@ -5891,10 +5891,10 @@
         <v>55</v>
       </c>
       <c r="C376" t="n">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="D376" t="n">
-        <v>147645916</v>
+        <v>4863986342</v>
       </c>
     </row>
     <row r="377">
@@ -5905,10 +5905,10 @@
         <v>55</v>
       </c>
       <c r="C377" t="n">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="D377" t="n">
-        <v>162806226</v>
+        <v>4557675421</v>
       </c>
     </row>
     <row r="378">
@@ -5919,10 +5919,10 @@
         <v>55</v>
       </c>
       <c r="C378" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D378" t="n">
-        <v>170812832</v>
+        <v>4381370000</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/out-ssc-net/out-ssc-net.xlsx
+++ b/user-data/out-ssc-net/out-ssc-net.xlsx
@@ -27,169 +27,169 @@
     <t xml:space="preserve">round</t>
   </si>
   <si>
+    <t xml:space="preserve">BR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brazil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulgaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Croatia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyprus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hungary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Israel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kazakhstan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuwait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latvia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liechtenstein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lithuania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other-donor-countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other donor countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russian Federation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saudi Arabia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taiwan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thailand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timor-Leste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkey</t>
+  </si>
+  <si>
     <t xml:space="preserve">AE</t>
   </si>
   <si>
     <t xml:space="preserve">UAE</t>
   </si>
   <si>
-    <t xml:space="preserve">BG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulgaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brazil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">China</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyprus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Croatia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hungary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Israel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kuwait</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kazakhstan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liechtenstein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lithuania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latvia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mexico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">other-donor-countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other donor countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Romania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Russian Federation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saudi Arabia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thailand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Timor-Leste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turkey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taiwan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Africa</t>
-  </si>
-  <si>
     <t xml:space="preserve">Name: out-ssc-net</t>
   </si>
   <si>
     <t xml:space="preserve">Description: Net south-south development cooperation provided, US$.</t>
   </si>
   <si>
-    <t xml:space="preserve">Units of measure: US$</t>
+    <t xml:space="preserve">Units of measure: constant 2015 US$</t>
   </si>
   <si>
     <t xml:space="preserve">Source: Development Initiatives based on OECD DAC and national sources.</t>
@@ -655,10 +655,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>2000</v>
+        <v>2005</v>
       </c>
       <c r="D2" t="n">
-        <v>532697836</v>
+        <v>332430639</v>
       </c>
     </row>
     <row r="3">
@@ -669,10 +669,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>2001</v>
+        <v>2006</v>
       </c>
       <c r="D3" t="n">
-        <v>684785718</v>
+        <v>400904197</v>
       </c>
     </row>
     <row r="4">
@@ -683,10 +683,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>2002</v>
+        <v>2007</v>
       </c>
       <c r="D4" t="n">
-        <v>756886837</v>
+        <v>385423347</v>
       </c>
     </row>
     <row r="5">
@@ -697,10 +697,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>2003</v>
+        <v>2008</v>
       </c>
       <c r="D5" t="n">
-        <v>1105810693</v>
+        <v>376226644</v>
       </c>
     </row>
     <row r="6">
@@ -711,10 +711,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>2004</v>
+        <v>2009</v>
       </c>
       <c r="D6" t="n">
-        <v>530867715</v>
+        <v>400283308</v>
       </c>
     </row>
     <row r="7">
@@ -725,150 +725,150 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>2005</v>
+        <v>2010</v>
       </c>
       <c r="D7" t="n">
-        <v>541812523</v>
+        <v>705997674</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>2006</v>
+        <v>2000</v>
       </c>
       <c r="D8" t="n">
-        <v>813333300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>2007</v>
+        <v>2001</v>
       </c>
       <c r="D9" t="n">
-        <v>2340375297</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
-        <v>2008</v>
+        <v>2002</v>
       </c>
       <c r="D10" t="n">
-        <v>1162956904</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>2009</v>
+        <v>2003</v>
       </c>
       <c r="D11" t="n">
-        <v>898801431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C12" t="n">
-        <v>2010</v>
+        <v>2004</v>
       </c>
       <c r="D12" t="n">
-        <v>388962088</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C13" t="n">
-        <v>2011</v>
+        <v>2005</v>
       </c>
       <c r="D13" t="n">
-        <v>635357639</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C14" t="n">
-        <v>2012</v>
+        <v>2006</v>
       </c>
       <c r="D14" t="n">
-        <v>687521917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C15" t="n">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="D15" t="n">
-        <v>4863986342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C16" t="n">
-        <v>2014</v>
+        <v>2008</v>
       </c>
       <c r="D16" t="n">
-        <v>4557675421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C17" t="n">
-        <v>2015</v>
+        <v>2009</v>
       </c>
       <c r="D17" t="n">
-        <v>4381370000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -879,10 +879,10 @@
         <v>7</v>
       </c>
       <c r="C18" t="n">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>38063593</v>
       </c>
     </row>
     <row r="19">
@@ -893,10 +893,10 @@
         <v>7</v>
       </c>
       <c r="C19" t="n">
-        <v>2001</v>
+        <v>2011</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>42828271</v>
       </c>
     </row>
     <row r="20">
@@ -907,10 +907,10 @@
         <v>7</v>
       </c>
       <c r="C20" t="n">
-        <v>2002</v>
+        <v>2012</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>36188229</v>
       </c>
     </row>
     <row r="21">
@@ -921,10 +921,10 @@
         <v>7</v>
       </c>
       <c r="C21" t="n">
-        <v>2003</v>
+        <v>2013</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>44712607</v>
       </c>
     </row>
     <row r="22">
@@ -935,10 +935,10 @@
         <v>7</v>
       </c>
       <c r="C22" t="n">
-        <v>2004</v>
+        <v>2014</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>43671736</v>
       </c>
     </row>
     <row r="23">
@@ -949,150 +949,150 @@
         <v>7</v>
       </c>
       <c r="C23" t="n">
-        <v>2005</v>
+        <v>2015</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>40930000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C24" t="n">
-        <v>2006</v>
+        <v>2001</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1688937478</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C25" t="n">
-        <v>2007</v>
+        <v>2002</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1802433700</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C26" t="n">
-        <v>2008</v>
+        <v>2003</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1841524967</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C27" t="n">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1995012778</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C28" t="n">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="D28" t="n">
-        <v>38063593</v>
+        <v>2323672057</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C29" t="n">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="D29" t="n">
-        <v>42828271</v>
+        <v>2701846205</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C30" t="n">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="D30" t="n">
-        <v>36188229</v>
+        <v>3675042274</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C31" t="n">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="D31" t="n">
-        <v>44712607</v>
+        <v>3437802768</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C32" t="n">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="D32" t="n">
-        <v>43671736</v>
+        <v>4354977869</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C33" t="n">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="D33" t="n">
-        <v>40930000</v>
+        <v>4760393621</v>
       </c>
     </row>
     <row r="34">
@@ -1103,10 +1103,10 @@
         <v>9</v>
       </c>
       <c r="C34" t="n">
-        <v>2005</v>
+        <v>2011</v>
       </c>
       <c r="D34" t="n">
-        <v>332430639</v>
+        <v>5242065477</v>
       </c>
     </row>
     <row r="35">
@@ -1117,10 +1117,10 @@
         <v>9</v>
       </c>
       <c r="C35" t="n">
-        <v>2006</v>
+        <v>2012</v>
       </c>
       <c r="D35" t="n">
-        <v>400904197</v>
+        <v>6333645694</v>
       </c>
     </row>
     <row r="36">
@@ -1131,52 +1131,52 @@
         <v>9</v>
       </c>
       <c r="C36" t="n">
-        <v>2007</v>
+        <v>2013</v>
       </c>
       <c r="D36" t="n">
-        <v>385423347</v>
+        <v>7549860957</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C37" t="n">
-        <v>2008</v>
+        <v>2000</v>
       </c>
       <c r="D37" t="n">
-        <v>376226644</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C38" t="n">
-        <v>2009</v>
+        <v>2001</v>
       </c>
       <c r="D38" t="n">
-        <v>400283308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C39" t="n">
-        <v>2010</v>
+        <v>2002</v>
       </c>
       <c r="D39" t="n">
-        <v>705997674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1187,10 +1187,10 @@
         <v>11</v>
       </c>
       <c r="C40" t="n">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="D40" t="n">
-        <v>1688937478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1201,10 +1201,10 @@
         <v>11</v>
       </c>
       <c r="C41" t="n">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="D41" t="n">
-        <v>1802433700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1215,10 +1215,10 @@
         <v>11</v>
       </c>
       <c r="C42" t="n">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="D42" t="n">
-        <v>1841524967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1229,10 +1229,10 @@
         <v>11</v>
       </c>
       <c r="C43" t="n">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="D43" t="n">
-        <v>1995012778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1243,10 +1243,10 @@
         <v>11</v>
       </c>
       <c r="C44" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="D44" t="n">
-        <v>2323672057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1257,10 +1257,10 @@
         <v>11</v>
       </c>
       <c r="C45" t="n">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="D45" t="n">
-        <v>2701846205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1271,10 +1271,10 @@
         <v>11</v>
       </c>
       <c r="C46" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="D46" t="n">
-        <v>3675042274</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1285,10 +1285,10 @@
         <v>11</v>
       </c>
       <c r="C47" t="n">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="D47" t="n">
-        <v>3437802768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1299,10 +1299,10 @@
         <v>11</v>
       </c>
       <c r="C48" t="n">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="D48" t="n">
-        <v>4354977869</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1313,10 +1313,10 @@
         <v>11</v>
       </c>
       <c r="C49" t="n">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="D49" t="n">
-        <v>4760393621</v>
+        <v>19340422</v>
       </c>
     </row>
     <row r="50">
@@ -1327,10 +1327,10 @@
         <v>11</v>
       </c>
       <c r="C50" t="n">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="D50" t="n">
-        <v>5242065477</v>
+        <v>40591564</v>
       </c>
     </row>
     <row r="51">
@@ -1341,10 +1341,10 @@
         <v>11</v>
       </c>
       <c r="C51" t="n">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="D51" t="n">
-        <v>6333645694</v>
+        <v>64668416</v>
       </c>
     </row>
     <row r="52">
@@ -1355,10 +1355,10 @@
         <v>11</v>
       </c>
       <c r="C52" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D52" t="n">
-        <v>7549860957</v>
+        <v>51410000</v>
       </c>
     </row>
     <row r="53">
@@ -1862,7 +1862,7 @@
         <v>2003</v>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>25439987</v>
       </c>
     </row>
     <row r="89">
@@ -1876,7 +1876,7 @@
         <v>2004</v>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>72330202</v>
       </c>
     </row>
     <row r="90">
@@ -1890,7 +1890,7 @@
         <v>2005</v>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>99482494</v>
       </c>
     </row>
     <row r="91">
@@ -1904,7 +1904,7 @@
         <v>2006</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>150969789</v>
       </c>
     </row>
     <row r="92">
@@ -1918,7 +1918,7 @@
         <v>2007</v>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>86501017</v>
       </c>
     </row>
     <row r="93">
@@ -1932,7 +1932,7 @@
         <v>2008</v>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>81465316</v>
       </c>
     </row>
     <row r="94">
@@ -1946,7 +1946,7 @@
         <v>2009</v>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>98310029</v>
       </c>
     </row>
     <row r="95">
@@ -1960,7 +1960,7 @@
         <v>2010</v>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>96968862</v>
       </c>
     </row>
     <row r="96">
@@ -1974,7 +1974,7 @@
         <v>2011</v>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>112101269</v>
       </c>
     </row>
     <row r="97">
@@ -1988,7 +1988,7 @@
         <v>2012</v>
       </c>
       <c r="D97" t="n">
-        <v>19340422</v>
+        <v>102654059</v>
       </c>
     </row>
     <row r="98">
@@ -2002,7 +2002,7 @@
         <v>2013</v>
       </c>
       <c r="D98" t="n">
-        <v>40591564</v>
+        <v>107268009</v>
       </c>
     </row>
     <row r="99">
@@ -2016,7 +2016,7 @@
         <v>2014</v>
       </c>
       <c r="D99" t="n">
-        <v>64668416</v>
+        <v>121489433</v>
       </c>
     </row>
     <row r="100">
@@ -2030,7 +2030,7 @@
         <v>2015</v>
       </c>
       <c r="D100" t="n">
-        <v>51410000</v>
+        <v>155550000</v>
       </c>
     </row>
     <row r="101">
@@ -2041,10 +2041,10 @@
         <v>19</v>
       </c>
       <c r="C101" t="n">
-        <v>2000</v>
+        <v>2008</v>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>807516210</v>
       </c>
     </row>
     <row r="102">
@@ -2055,10 +2055,10 @@
         <v>19</v>
       </c>
       <c r="C102" t="n">
-        <v>2001</v>
+        <v>2009</v>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>704905469</v>
       </c>
     </row>
     <row r="103">
@@ -2069,10 +2069,10 @@
         <v>19</v>
       </c>
       <c r="C103" t="n">
-        <v>2002</v>
+        <v>2010</v>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>678268926</v>
       </c>
     </row>
     <row r="104">
@@ -2083,10 +2083,10 @@
         <v>19</v>
       </c>
       <c r="C104" t="n">
-        <v>2003</v>
+        <v>2011</v>
       </c>
       <c r="D104" t="n">
-        <v>25439987</v>
+        <v>744773829</v>
       </c>
     </row>
     <row r="105">
@@ -2097,10 +2097,10 @@
         <v>19</v>
       </c>
       <c r="C105" t="n">
-        <v>2004</v>
+        <v>2012</v>
       </c>
       <c r="D105" t="n">
-        <v>72330202</v>
+        <v>973574743</v>
       </c>
     </row>
     <row r="106">
@@ -2111,150 +2111,150 @@
         <v>19</v>
       </c>
       <c r="C106" t="n">
-        <v>2005</v>
+        <v>2013</v>
       </c>
       <c r="D106" t="n">
-        <v>99482494</v>
+        <v>1207653823</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B107" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C107" t="n">
-        <v>2006</v>
+        <v>2000</v>
       </c>
       <c r="D107" t="n">
-        <v>150969789</v>
+        <v>229664732</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B108" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C108" t="n">
-        <v>2007</v>
+        <v>2001</v>
       </c>
       <c r="D108" t="n">
-        <v>86501017</v>
+        <v>130832356</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B109" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C109" t="n">
-        <v>2008</v>
+        <v>2002</v>
       </c>
       <c r="D109" t="n">
-        <v>81465316</v>
+        <v>199654096</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B110" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C110" t="n">
-        <v>2009</v>
+        <v>2003</v>
       </c>
       <c r="D110" t="n">
-        <v>98310029</v>
+        <v>164442754</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B111" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C111" t="n">
-        <v>2010</v>
+        <v>2004</v>
       </c>
       <c r="D111" t="n">
-        <v>96968862</v>
+        <v>121425612</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B112" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C112" t="n">
-        <v>2011</v>
+        <v>2005</v>
       </c>
       <c r="D112" t="n">
-        <v>112101269</v>
+        <v>136696176</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B113" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C113" t="n">
-        <v>2012</v>
+        <v>2006</v>
       </c>
       <c r="D113" t="n">
-        <v>102654059</v>
+        <v>125840056</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B114" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C114" t="n">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="D114" t="n">
-        <v>107268009</v>
+        <v>142133709</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B115" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C115" t="n">
-        <v>2014</v>
+        <v>2008</v>
       </c>
       <c r="D115" t="n">
-        <v>121489433</v>
+        <v>150394213</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B116" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C116" t="n">
-        <v>2015</v>
+        <v>2009</v>
       </c>
       <c r="D116" t="n">
-        <v>155550000</v>
+        <v>142673674</v>
       </c>
     </row>
     <row r="117">
@@ -2265,10 +2265,10 @@
         <v>21</v>
       </c>
       <c r="C117" t="n">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="D117" t="n">
-        <v>229664732</v>
+        <v>155945423</v>
       </c>
     </row>
     <row r="118">
@@ -2279,10 +2279,10 @@
         <v>21</v>
       </c>
       <c r="C118" t="n">
-        <v>2001</v>
+        <v>2011</v>
       </c>
       <c r="D118" t="n">
-        <v>130832356</v>
+        <v>208966110</v>
       </c>
     </row>
     <row r="119">
@@ -2293,10 +2293,10 @@
         <v>21</v>
       </c>
       <c r="C119" t="n">
-        <v>2002</v>
+        <v>2012</v>
       </c>
       <c r="D119" t="n">
-        <v>199654096</v>
+        <v>190323138</v>
       </c>
     </row>
     <row r="120">
@@ -2307,10 +2307,10 @@
         <v>21</v>
       </c>
       <c r="C120" t="n">
-        <v>2003</v>
+        <v>2013</v>
       </c>
       <c r="D120" t="n">
-        <v>164442754</v>
+        <v>194879678</v>
       </c>
     </row>
     <row r="121">
@@ -2321,10 +2321,10 @@
         <v>21</v>
       </c>
       <c r="C121" t="n">
-        <v>2004</v>
+        <v>2014</v>
       </c>
       <c r="D121" t="n">
-        <v>121425612</v>
+        <v>189082168</v>
       </c>
     </row>
     <row r="122">
@@ -2335,150 +2335,150 @@
         <v>21</v>
       </c>
       <c r="C122" t="n">
-        <v>2005</v>
+        <v>2015</v>
       </c>
       <c r="D122" t="n">
-        <v>136696176</v>
+        <v>197930000</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B123" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C123" t="n">
-        <v>2006</v>
+        <v>2000</v>
       </c>
       <c r="D123" t="n">
-        <v>125840056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B124" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C124" t="n">
-        <v>2007</v>
+        <v>2001</v>
       </c>
       <c r="D124" t="n">
-        <v>142133709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B125" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C125" t="n">
-        <v>2008</v>
+        <v>2002</v>
       </c>
       <c r="D125" t="n">
-        <v>150394213</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B126" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C126" t="n">
-        <v>2009</v>
+        <v>2003</v>
       </c>
       <c r="D126" t="n">
-        <v>142673674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B127" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C127" t="n">
-        <v>2010</v>
+        <v>2004</v>
       </c>
       <c r="D127" t="n">
-        <v>155945423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B128" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C128" t="n">
-        <v>2011</v>
+        <v>2005</v>
       </c>
       <c r="D128" t="n">
-        <v>208966110</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B129" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C129" t="n">
-        <v>2012</v>
+        <v>2006</v>
       </c>
       <c r="D129" t="n">
-        <v>190323138</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B130" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C130" t="n">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="D130" t="n">
-        <v>194879678</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B131" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C131" t="n">
-        <v>2014</v>
+        <v>2008</v>
       </c>
       <c r="D131" t="n">
-        <v>189082168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B132" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C132" t="n">
-        <v>2015</v>
+        <v>2009</v>
       </c>
       <c r="D132" t="n">
-        <v>197930000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -2489,10 +2489,10 @@
         <v>23</v>
       </c>
       <c r="C133" t="n">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="D133" t="n">
-        <v>807516210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -2503,10 +2503,10 @@
         <v>23</v>
       </c>
       <c r="C134" t="n">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="D134" t="n">
-        <v>704905469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -2517,10 +2517,10 @@
         <v>23</v>
       </c>
       <c r="C135" t="n">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="D135" t="n">
-        <v>678268926</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -2531,10 +2531,10 @@
         <v>23</v>
       </c>
       <c r="C136" t="n">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="D136" t="n">
-        <v>744773829</v>
+        <v>6827408</v>
       </c>
     </row>
     <row r="137">
@@ -2545,10 +2545,10 @@
         <v>23</v>
       </c>
       <c r="C137" t="n">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="D137" t="n">
-        <v>973574743</v>
+        <v>26740683</v>
       </c>
     </row>
     <row r="138">
@@ -2559,10 +2559,10 @@
         <v>23</v>
       </c>
       <c r="C138" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D138" t="n">
-        <v>1207653823</v>
+        <v>42960000</v>
       </c>
     </row>
     <row r="139">
@@ -2828,7 +2828,7 @@
         <v>2002</v>
       </c>
       <c r="D157" t="n">
-        <v>0</v>
+        <v>2801562</v>
       </c>
     </row>
     <row r="158">
@@ -2842,7 +2842,7 @@
         <v>2003</v>
       </c>
       <c r="D158" t="n">
-        <v>0</v>
+        <v>1447053</v>
       </c>
     </row>
     <row r="159">
@@ -2856,7 +2856,7 @@
         <v>2004</v>
       </c>
       <c r="D159" t="n">
-        <v>0</v>
+        <v>12106448</v>
       </c>
     </row>
     <row r="160">
@@ -2870,7 +2870,7 @@
         <v>2005</v>
       </c>
       <c r="D160" t="n">
-        <v>0</v>
+        <v>14445290</v>
       </c>
     </row>
     <row r="161">
@@ -2884,7 +2884,7 @@
         <v>2006</v>
       </c>
       <c r="D161" t="n">
-        <v>0</v>
+        <v>14268615</v>
       </c>
     </row>
     <row r="162">
@@ -2898,7 +2898,7 @@
         <v>2007</v>
       </c>
       <c r="D162" t="n">
-        <v>0</v>
+        <v>14453703</v>
       </c>
     </row>
     <row r="163">
@@ -2912,7 +2912,7 @@
         <v>2008</v>
       </c>
       <c r="D163" t="n">
-        <v>0</v>
+        <v>16809370</v>
       </c>
     </row>
     <row r="164">
@@ -2926,7 +2926,7 @@
         <v>2009</v>
       </c>
       <c r="D164" t="n">
-        <v>0</v>
+        <v>18643426</v>
       </c>
     </row>
     <row r="165">
@@ -2940,7 +2940,7 @@
         <v>2010</v>
       </c>
       <c r="D165" t="n">
-        <v>0</v>
+        <v>14874358</v>
       </c>
     </row>
     <row r="166">
@@ -2954,7 +2954,7 @@
         <v>2011</v>
       </c>
       <c r="D166" t="n">
-        <v>0</v>
+        <v>16296171</v>
       </c>
     </row>
     <row r="167">
@@ -2968,7 +2968,7 @@
         <v>2012</v>
       </c>
       <c r="D167" t="n">
-        <v>0</v>
+        <v>18912645</v>
       </c>
     </row>
     <row r="168">
@@ -2982,7 +2982,7 @@
         <v>2013</v>
       </c>
       <c r="D168" t="n">
-        <v>6827408</v>
+        <v>20216675</v>
       </c>
     </row>
     <row r="169">
@@ -2996,7 +2996,7 @@
         <v>2014</v>
       </c>
       <c r="D169" t="n">
-        <v>26740683</v>
+        <v>21344030</v>
       </c>
     </row>
     <row r="170">
@@ -3010,7 +3010,7 @@
         <v>2015</v>
       </c>
       <c r="D170" t="n">
-        <v>42960000</v>
+        <v>23170000</v>
       </c>
     </row>
     <row r="171">
@@ -3500,7 +3500,7 @@
         <v>2002</v>
       </c>
       <c r="D205" t="n">
-        <v>2801562</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
@@ -3514,7 +3514,7 @@
         <v>2003</v>
       </c>
       <c r="D206" t="n">
-        <v>1447053</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
@@ -3528,7 +3528,7 @@
         <v>2004</v>
       </c>
       <c r="D207" t="n">
-        <v>12106448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
@@ -3542,7 +3542,7 @@
         <v>2005</v>
       </c>
       <c r="D208" t="n">
-        <v>14445290</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -3556,7 +3556,7 @@
         <v>2006</v>
       </c>
       <c r="D209" t="n">
-        <v>14268615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
@@ -3570,7 +3570,7 @@
         <v>2007</v>
       </c>
       <c r="D210" t="n">
-        <v>14453703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
@@ -3584,7 +3584,7 @@
         <v>2008</v>
       </c>
       <c r="D211" t="n">
-        <v>16809370</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
@@ -3598,7 +3598,7 @@
         <v>2009</v>
       </c>
       <c r="D212" t="n">
-        <v>18643426</v>
+        <v>12998613</v>
       </c>
     </row>
     <row r="213">
@@ -3612,7 +3612,7 @@
         <v>2010</v>
       </c>
       <c r="D213" t="n">
-        <v>14874358</v>
+        <v>12971701</v>
       </c>
     </row>
     <row r="214">
@@ -3626,7 +3626,7 @@
         <v>2011</v>
       </c>
       <c r="D214" t="n">
-        <v>16296171</v>
+        <v>17663402</v>
       </c>
     </row>
     <row r="215">
@@ -3640,7 +3640,7 @@
         <v>2012</v>
       </c>
       <c r="D215" t="n">
-        <v>18912645</v>
+        <v>16829122</v>
       </c>
     </row>
     <row r="216">
@@ -3654,7 +3654,7 @@
         <v>2013</v>
       </c>
       <c r="D216" t="n">
-        <v>20216675</v>
+        <v>16443380</v>
       </c>
     </row>
     <row r="217">
@@ -3668,7 +3668,7 @@
         <v>2014</v>
       </c>
       <c r="D217" t="n">
-        <v>21344030</v>
+        <v>18309296</v>
       </c>
     </row>
     <row r="218">
@@ -3682,7 +3682,7 @@
         <v>2015</v>
       </c>
       <c r="D218" t="n">
-        <v>23170000</v>
+        <v>16560000</v>
       </c>
     </row>
     <row r="219">
@@ -3693,10 +3693,10 @@
         <v>35</v>
       </c>
       <c r="C219" t="n">
-        <v>2000</v>
+        <v>2011</v>
       </c>
       <c r="D219" t="n">
-        <v>0</v>
+        <v>237549090</v>
       </c>
     </row>
     <row r="220">
@@ -3707,21 +3707,21 @@
         <v>35</v>
       </c>
       <c r="C220" t="n">
-        <v>2001</v>
+        <v>2012</v>
       </c>
       <c r="D220" t="n">
-        <v>0</v>
+        <v>251257546</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B221" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C221" t="n">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="D221" t="n">
         <v>0</v>
@@ -3729,13 +3729,13 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B222" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C222" t="n">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="D222" t="n">
         <v>0</v>
@@ -3743,13 +3743,13 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B223" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C223" t="n">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="D223" t="n">
         <v>0</v>
@@ -3757,13 +3757,13 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B224" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C224" t="n">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="D224" t="n">
         <v>0</v>
@@ -3771,13 +3771,13 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B225" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C225" t="n">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="D225" t="n">
         <v>0</v>
@@ -3785,13 +3785,13 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B226" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C226" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="D226" t="n">
         <v>0</v>
@@ -3799,13 +3799,13 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B227" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C227" t="n">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="D227" t="n">
         <v>0</v>
@@ -3813,100 +3813,100 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B228" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C228" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="D228" t="n">
-        <v>12998613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B229" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C229" t="n">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="D229" t="n">
-        <v>12971701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C230" t="n">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="D230" t="n">
-        <v>17663402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B231" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C231" t="n">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="D231" t="n">
-        <v>16829122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B232" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C232" t="n">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="D232" t="n">
-        <v>16443380</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B233" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C233" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D233" t="n">
-        <v>18309296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B234" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C234" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D234" t="n">
-        <v>16560000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
@@ -3917,10 +3917,10 @@
         <v>37</v>
       </c>
       <c r="C235" t="n">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="D235" t="n">
-        <v>237549090</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
@@ -3931,10 +3931,10 @@
         <v>37</v>
       </c>
       <c r="C236" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D236" t="n">
-        <v>251257546</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
@@ -4060,7 +4060,7 @@
         <v>2008</v>
       </c>
       <c r="D245" t="n">
-        <v>0</v>
+        <v>112884262</v>
       </c>
     </row>
     <row r="246">
@@ -4074,7 +4074,7 @@
         <v>2009</v>
       </c>
       <c r="D246" t="n">
-        <v>0</v>
+        <v>144830607</v>
       </c>
     </row>
     <row r="247">
@@ -4088,7 +4088,7 @@
         <v>2010</v>
       </c>
       <c r="D247" t="n">
-        <v>0</v>
+        <v>107393905</v>
       </c>
     </row>
     <row r="248">
@@ -4102,7 +4102,7 @@
         <v>2011</v>
       </c>
       <c r="D248" t="n">
-        <v>0</v>
+        <v>145027973</v>
       </c>
     </row>
     <row r="249">
@@ -4116,7 +4116,7 @@
         <v>2012</v>
       </c>
       <c r="D249" t="n">
-        <v>0</v>
+        <v>128969574</v>
       </c>
     </row>
     <row r="250">
@@ -4130,7 +4130,7 @@
         <v>2013</v>
       </c>
       <c r="D250" t="n">
-        <v>0</v>
+        <v>120563585</v>
       </c>
     </row>
     <row r="251">
@@ -4144,7 +4144,7 @@
         <v>2014</v>
       </c>
       <c r="D251" t="n">
-        <v>0</v>
+        <v>191651156</v>
       </c>
     </row>
     <row r="252">
@@ -4158,7 +4158,7 @@
         <v>2015</v>
       </c>
       <c r="D252" t="n">
-        <v>0</v>
+        <v>158090000</v>
       </c>
     </row>
     <row r="253">
@@ -4284,7 +4284,7 @@
         <v>2008</v>
       </c>
       <c r="D261" t="n">
-        <v>112884262</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262">
@@ -4298,7 +4298,7 @@
         <v>2009</v>
       </c>
       <c r="D262" t="n">
-        <v>144830607</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263">
@@ -4312,7 +4312,7 @@
         <v>2010</v>
       </c>
       <c r="D263" t="n">
-        <v>107393905</v>
+        <v>351856290</v>
       </c>
     </row>
     <row r="264">
@@ -4326,7 +4326,7 @@
         <v>2011</v>
       </c>
       <c r="D264" t="n">
-        <v>145027973</v>
+        <v>326545172</v>
       </c>
     </row>
     <row r="265">
@@ -4340,7 +4340,7 @@
         <v>2012</v>
       </c>
       <c r="D265" t="n">
-        <v>128969574</v>
+        <v>284596400</v>
       </c>
     </row>
     <row r="266">
@@ -4354,7 +4354,7 @@
         <v>2013</v>
       </c>
       <c r="D266" t="n">
-        <v>120563585</v>
+        <v>426452145</v>
       </c>
     </row>
     <row r="267">
@@ -4368,7 +4368,7 @@
         <v>2014</v>
       </c>
       <c r="D267" t="n">
-        <v>191651156</v>
+        <v>591639784</v>
       </c>
     </row>
     <row r="268">
@@ -4382,7 +4382,7 @@
         <v>2015</v>
       </c>
       <c r="D268" t="n">
-        <v>158090000</v>
+        <v>1161400000</v>
       </c>
     </row>
     <row r="269">
@@ -4396,7 +4396,7 @@
         <v>2000</v>
       </c>
       <c r="D269" t="n">
-        <v>0</v>
+        <v>339309994</v>
       </c>
     </row>
     <row r="270">
@@ -4410,7 +4410,7 @@
         <v>2001</v>
       </c>
       <c r="D270" t="n">
-        <v>0</v>
+        <v>266065408</v>
       </c>
     </row>
     <row r="271">
@@ -4424,7 +4424,7 @@
         <v>2002</v>
       </c>
       <c r="D271" t="n">
-        <v>0</v>
+        <v>3101959999</v>
       </c>
     </row>
     <row r="272">
@@ -4438,7 +4438,7 @@
         <v>2003</v>
       </c>
       <c r="D272" t="n">
-        <v>0</v>
+        <v>2634585835</v>
       </c>
     </row>
     <row r="273">
@@ -4452,7 +4452,7 @@
         <v>2004</v>
       </c>
       <c r="D273" t="n">
-        <v>0</v>
+        <v>1752876685</v>
       </c>
     </row>
     <row r="274">
@@ -4466,7 +4466,7 @@
         <v>2005</v>
       </c>
       <c r="D274" t="n">
-        <v>0</v>
+        <v>1006651402</v>
       </c>
     </row>
     <row r="275">
@@ -4480,7 +4480,7 @@
         <v>2006</v>
       </c>
       <c r="D275" t="n">
-        <v>0</v>
+        <v>1942294047</v>
       </c>
     </row>
     <row r="276">
@@ -4494,7 +4494,7 @@
         <v>2007</v>
       </c>
       <c r="D276" t="n">
-        <v>0</v>
+        <v>1381055868</v>
       </c>
     </row>
     <row r="277">
@@ -4508,7 +4508,7 @@
         <v>2008</v>
       </c>
       <c r="D277" t="n">
-        <v>0</v>
+        <v>4222531781</v>
       </c>
     </row>
     <row r="278">
@@ -4522,7 +4522,7 @@
         <v>2009</v>
       </c>
       <c r="D278" t="n">
-        <v>0</v>
+        <v>2746485658</v>
       </c>
     </row>
     <row r="279">
@@ -4536,7 +4536,7 @@
         <v>2010</v>
       </c>
       <c r="D279" t="n">
-        <v>351856290</v>
+        <v>3019001883</v>
       </c>
     </row>
     <row r="280">
@@ -4550,7 +4550,7 @@
         <v>2011</v>
       </c>
       <c r="D280" t="n">
-        <v>326545172</v>
+        <v>4162727093</v>
       </c>
     </row>
     <row r="281">
@@ -4564,7 +4564,7 @@
         <v>2012</v>
       </c>
       <c r="D281" t="n">
-        <v>284596400</v>
+        <v>1085816827</v>
       </c>
     </row>
     <row r="282">
@@ -4578,7 +4578,7 @@
         <v>2013</v>
       </c>
       <c r="D282" t="n">
-        <v>426452145</v>
+        <v>4723609196</v>
       </c>
     </row>
     <row r="283">
@@ -4592,7 +4592,7 @@
         <v>2014</v>
       </c>
       <c r="D283" t="n">
-        <v>591639784</v>
+        <v>11290141609</v>
       </c>
     </row>
     <row r="284">
@@ -4606,7 +4606,7 @@
         <v>2015</v>
       </c>
       <c r="D284" t="n">
-        <v>1161400000</v>
+        <v>6758220000</v>
       </c>
     </row>
     <row r="285">
@@ -4620,7 +4620,7 @@
         <v>2000</v>
       </c>
       <c r="D285" t="n">
-        <v>339309994</v>
+        <v>41485024</v>
       </c>
     </row>
     <row r="286">
@@ -4634,7 +4634,7 @@
         <v>2001</v>
       </c>
       <c r="D286" t="n">
-        <v>266065408</v>
+        <v>69964303</v>
       </c>
     </row>
     <row r="287">
@@ -4648,7 +4648,7 @@
         <v>2002</v>
       </c>
       <c r="D287" t="n">
-        <v>3101959999</v>
+        <v>115180398</v>
       </c>
     </row>
     <row r="288">
@@ -4662,7 +4662,7 @@
         <v>2003</v>
       </c>
       <c r="D288" t="n">
-        <v>2634585835</v>
+        <v>97226595</v>
       </c>
     </row>
     <row r="289">
@@ -4676,7 +4676,7 @@
         <v>2004</v>
       </c>
       <c r="D289" t="n">
-        <v>1752876685</v>
+        <v>73680805</v>
       </c>
     </row>
     <row r="290">
@@ -4690,7 +4690,7 @@
         <v>2005</v>
       </c>
       <c r="D290" t="n">
-        <v>1006651402</v>
+        <v>74756703</v>
       </c>
     </row>
     <row r="291">
@@ -4704,7 +4704,7 @@
         <v>2006</v>
       </c>
       <c r="D291" t="n">
-        <v>1942294047</v>
+        <v>96966589</v>
       </c>
     </row>
     <row r="292">
@@ -4718,7 +4718,7 @@
         <v>2007</v>
       </c>
       <c r="D292" t="n">
-        <v>1381055868</v>
+        <v>104727702</v>
       </c>
     </row>
     <row r="293">
@@ -4732,7 +4732,7 @@
         <v>2008</v>
       </c>
       <c r="D293" t="n">
-        <v>4222531781</v>
+        <v>146932364</v>
       </c>
     </row>
     <row r="294">
@@ -4746,7 +4746,7 @@
         <v>2009</v>
       </c>
       <c r="D294" t="n">
-        <v>2746485658</v>
+        <v>204494298</v>
       </c>
     </row>
     <row r="295">
@@ -4760,7 +4760,7 @@
         <v>2010</v>
       </c>
       <c r="D295" t="n">
-        <v>3019001883</v>
+        <v>155623508</v>
       </c>
     </row>
     <row r="296">
@@ -4774,7 +4774,7 @@
         <v>2011</v>
       </c>
       <c r="D296" t="n">
-        <v>4162727093</v>
+        <v>147645916</v>
       </c>
     </row>
     <row r="297">
@@ -4788,7 +4788,7 @@
         <v>2012</v>
       </c>
       <c r="D297" t="n">
-        <v>1085816827</v>
+        <v>162806226</v>
       </c>
     </row>
     <row r="298">
@@ -4802,35 +4802,35 @@
         <v>2013</v>
       </c>
       <c r="D298" t="n">
-        <v>4723609196</v>
+        <v>170812832</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B299" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C299" t="n">
-        <v>2014</v>
+        <v>2000</v>
       </c>
       <c r="D299" t="n">
-        <v>11290141609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B300" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C300" t="n">
-        <v>2015</v>
+        <v>2001</v>
       </c>
       <c r="D300" t="n">
-        <v>6758220000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301">
@@ -4841,7 +4841,7 @@
         <v>47</v>
       </c>
       <c r="C301" t="n">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="D301" t="n">
         <v>0</v>
@@ -4855,7 +4855,7 @@
         <v>47</v>
       </c>
       <c r="C302" t="n">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="D302" t="n">
         <v>0</v>
@@ -4869,10 +4869,10 @@
         <v>47</v>
       </c>
       <c r="C303" t="n">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="D303" t="n">
-        <v>0</v>
+        <v>460986595</v>
       </c>
     </row>
     <row r="304">
@@ -4883,10 +4883,10 @@
         <v>47</v>
       </c>
       <c r="C304" t="n">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="D304" t="n">
-        <v>0</v>
+        <v>513296813</v>
       </c>
     </row>
     <row r="305">
@@ -4897,10 +4897,10 @@
         <v>47</v>
       </c>
       <c r="C305" t="n">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="D305" t="n">
-        <v>0</v>
+        <v>533086959</v>
       </c>
     </row>
     <row r="306">
@@ -4911,10 +4911,10 @@
         <v>47</v>
       </c>
       <c r="C306" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="D306" t="n">
-        <v>0</v>
+        <v>495937823</v>
       </c>
     </row>
     <row r="307">
@@ -4925,10 +4925,10 @@
         <v>47</v>
       </c>
       <c r="C307" t="n">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="D307" t="n">
-        <v>76612072</v>
+        <v>399848859</v>
       </c>
     </row>
     <row r="308">
@@ -4939,10 +4939,10 @@
         <v>47</v>
       </c>
       <c r="C308" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="D308" t="n">
-        <v>64555091</v>
+        <v>390563820</v>
       </c>
     </row>
     <row r="309">
@@ -4953,10 +4953,10 @@
         <v>47</v>
       </c>
       <c r="C309" t="n">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="D309" t="n">
-        <v>162643662</v>
+        <v>358025804</v>
       </c>
     </row>
     <row r="310">
@@ -4967,10 +4967,10 @@
         <v>47</v>
       </c>
       <c r="C310" t="n">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="D310" t="n">
-        <v>36538756</v>
+        <v>337446206</v>
       </c>
     </row>
     <row r="311">
@@ -4981,10 +4981,10 @@
         <v>47</v>
       </c>
       <c r="C311" t="n">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="D311" t="n">
-        <v>4198413</v>
+        <v>275770209</v>
       </c>
     </row>
     <row r="312">
@@ -4995,10 +4995,10 @@
         <v>47</v>
       </c>
       <c r="C312" t="n">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="D312" t="n">
-        <v>20175709</v>
+        <v>244703448</v>
       </c>
     </row>
     <row r="313">
@@ -5009,10 +5009,10 @@
         <v>47</v>
       </c>
       <c r="C313" t="n">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="D313" t="n">
-        <v>10406324</v>
+        <v>245779975</v>
       </c>
     </row>
     <row r="314">
@@ -5023,38 +5023,38 @@
         <v>47</v>
       </c>
       <c r="C314" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D314" t="n">
-        <v>32735065</v>
+        <v>254760000</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B315" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C315" t="n">
-        <v>2014</v>
+        <v>2000</v>
       </c>
       <c r="D315" t="n">
-        <v>61872771</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B316" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C316" t="n">
-        <v>2015</v>
+        <v>2001</v>
       </c>
       <c r="D316" t="n">
-        <v>62420000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317">
@@ -5065,7 +5065,7 @@
         <v>49</v>
       </c>
       <c r="C317" t="n">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="D317" t="n">
         <v>0</v>
@@ -5079,7 +5079,7 @@
         <v>49</v>
       </c>
       <c r="C318" t="n">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="D318" t="n">
         <v>0</v>
@@ -5093,7 +5093,7 @@
         <v>49</v>
       </c>
       <c r="C319" t="n">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="D319" t="n">
         <v>0</v>
@@ -5107,7 +5107,7 @@
         <v>49</v>
       </c>
       <c r="C320" t="n">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="D320" t="n">
         <v>0</v>
@@ -5121,10 +5121,10 @@
         <v>49</v>
       </c>
       <c r="C321" t="n">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="D321" t="n">
-        <v>0</v>
+        <v>76612072</v>
       </c>
     </row>
     <row r="322">
@@ -5135,10 +5135,10 @@
         <v>49</v>
       </c>
       <c r="C322" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="D322" t="n">
-        <v>0</v>
+        <v>64555091</v>
       </c>
     </row>
     <row r="323">
@@ -5149,10 +5149,10 @@
         <v>49</v>
       </c>
       <c r="C323" t="n">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="D323" t="n">
-        <v>0</v>
+        <v>162643662</v>
       </c>
     </row>
     <row r="324">
@@ -5163,10 +5163,10 @@
         <v>49</v>
       </c>
       <c r="C324" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="D324" t="n">
-        <v>0</v>
+        <v>36538756</v>
       </c>
     </row>
     <row r="325">
@@ -5177,10 +5177,10 @@
         <v>49</v>
       </c>
       <c r="C325" t="n">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="D325" t="n">
-        <v>0</v>
+        <v>4198413</v>
       </c>
     </row>
     <row r="326">
@@ -5191,10 +5191,10 @@
         <v>49</v>
       </c>
       <c r="C326" t="n">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="D326" t="n">
-        <v>0</v>
+        <v>20175709</v>
       </c>
     </row>
     <row r="327">
@@ -5205,10 +5205,10 @@
         <v>49</v>
       </c>
       <c r="C327" t="n">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="D327" t="n">
-        <v>0</v>
+        <v>10406324</v>
       </c>
     </row>
     <row r="328">
@@ -5219,10 +5219,10 @@
         <v>49</v>
       </c>
       <c r="C328" t="n">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="D328" t="n">
-        <v>0</v>
+        <v>32735065</v>
       </c>
     </row>
     <row r="329">
@@ -5233,10 +5233,10 @@
         <v>49</v>
       </c>
       <c r="C329" t="n">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="D329" t="n">
-        <v>0</v>
+        <v>61872771</v>
       </c>
     </row>
     <row r="330">
@@ -5247,38 +5247,38 @@
         <v>49</v>
       </c>
       <c r="C330" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D330" t="n">
-        <v>0</v>
+        <v>62420000</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B331" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C331" t="n">
-        <v>2014</v>
+        <v>2000</v>
       </c>
       <c r="D331" t="n">
-        <v>2225256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B332" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C332" t="n">
-        <v>2015</v>
+        <v>2001</v>
       </c>
       <c r="D332" t="n">
-        <v>4000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333">
@@ -5289,10 +5289,10 @@
         <v>51</v>
       </c>
       <c r="C333" t="n">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="D333" t="n">
-        <v>121316204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334">
@@ -5303,10 +5303,10 @@
         <v>51</v>
       </c>
       <c r="C334" t="n">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="D334" t="n">
-        <v>122273965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335">
@@ -5317,10 +5317,10 @@
         <v>51</v>
       </c>
       <c r="C335" t="n">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="D335" t="n">
-        <v>124672676</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336">
@@ -5331,10 +5331,10 @@
         <v>51</v>
       </c>
       <c r="C336" t="n">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="D336" t="n">
-        <v>91703315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337">
@@ -5345,10 +5345,10 @@
         <v>51</v>
       </c>
       <c r="C337" t="n">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="D337" t="n">
-        <v>395537416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338">
@@ -5359,10 +5359,10 @@
         <v>51</v>
       </c>
       <c r="C338" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="D338" t="n">
-        <v>613371618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339">
@@ -5373,10 +5373,10 @@
         <v>51</v>
       </c>
       <c r="C339" t="n">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="D339" t="n">
-        <v>711520402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340">
@@ -5387,10 +5387,10 @@
         <v>51</v>
       </c>
       <c r="C340" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="D340" t="n">
-        <v>513471263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341">
@@ -5401,10 +5401,10 @@
         <v>51</v>
       </c>
       <c r="C341" t="n">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="D341" t="n">
-        <v>597952553</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342">
@@ -5415,10 +5415,10 @@
         <v>51</v>
       </c>
       <c r="C342" t="n">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="D342" t="n">
-        <v>607935690</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343">
@@ -5429,10 +5429,10 @@
         <v>51</v>
       </c>
       <c r="C343" t="n">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="D343" t="n">
-        <v>763144500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344">
@@ -5443,10 +5443,10 @@
         <v>51</v>
       </c>
       <c r="C344" t="n">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="D344" t="n">
-        <v>1031437961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345">
@@ -5457,10 +5457,10 @@
         <v>51</v>
       </c>
       <c r="C345" t="n">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="D345" t="n">
-        <v>2057707461</v>
+        <v>2225256</v>
       </c>
     </row>
     <row r="346">
@@ -5471,38 +5471,38 @@
         <v>51</v>
       </c>
       <c r="C346" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D346" t="n">
-        <v>2690631183</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B347" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C347" t="n">
-        <v>2014</v>
+        <v>2000</v>
       </c>
       <c r="D347" t="n">
-        <v>3098550450</v>
+        <v>121316204</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B348" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C348" t="n">
-        <v>2015</v>
+        <v>2001</v>
       </c>
       <c r="D348" t="n">
-        <v>3919140000</v>
+        <v>122273965</v>
       </c>
     </row>
     <row r="349">
@@ -5513,10 +5513,10 @@
         <v>53</v>
       </c>
       <c r="C349" t="n">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="D349" t="n">
-        <v>0</v>
+        <v>124672676</v>
       </c>
     </row>
     <row r="350">
@@ -5527,10 +5527,10 @@
         <v>53</v>
       </c>
       <c r="C350" t="n">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="D350" t="n">
-        <v>0</v>
+        <v>91703315</v>
       </c>
     </row>
     <row r="351">
@@ -5541,10 +5541,10 @@
         <v>53</v>
       </c>
       <c r="C351" t="n">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="D351" t="n">
-        <v>0</v>
+        <v>395537416</v>
       </c>
     </row>
     <row r="352">
@@ -5555,10 +5555,10 @@
         <v>53</v>
       </c>
       <c r="C352" t="n">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="D352" t="n">
-        <v>0</v>
+        <v>613371618</v>
       </c>
     </row>
     <row r="353">
@@ -5569,10 +5569,10 @@
         <v>53</v>
       </c>
       <c r="C353" t="n">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="D353" t="n">
-        <v>460986595</v>
+        <v>711520402</v>
       </c>
     </row>
     <row r="354">
@@ -5583,10 +5583,10 @@
         <v>53</v>
       </c>
       <c r="C354" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="D354" t="n">
-        <v>513296813</v>
+        <v>513471263</v>
       </c>
     </row>
     <row r="355">
@@ -5597,10 +5597,10 @@
         <v>53</v>
       </c>
       <c r="C355" t="n">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="D355" t="n">
-        <v>533086959</v>
+        <v>597952553</v>
       </c>
     </row>
     <row r="356">
@@ -5611,10 +5611,10 @@
         <v>53</v>
       </c>
       <c r="C356" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="D356" t="n">
-        <v>495937823</v>
+        <v>607935690</v>
       </c>
     </row>
     <row r="357">
@@ -5625,10 +5625,10 @@
         <v>53</v>
       </c>
       <c r="C357" t="n">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="D357" t="n">
-        <v>399848859</v>
+        <v>763144500</v>
       </c>
     </row>
     <row r="358">
@@ -5639,10 +5639,10 @@
         <v>53</v>
       </c>
       <c r="C358" t="n">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="D358" t="n">
-        <v>390563820</v>
+        <v>1031437961</v>
       </c>
     </row>
     <row r="359">
@@ -5653,10 +5653,10 @@
         <v>53</v>
       </c>
       <c r="C359" t="n">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="D359" t="n">
-        <v>358025804</v>
+        <v>2057707461</v>
       </c>
     </row>
     <row r="360">
@@ -5667,10 +5667,10 @@
         <v>53</v>
       </c>
       <c r="C360" t="n">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="D360" t="n">
-        <v>337446206</v>
+        <v>2690631183</v>
       </c>
     </row>
     <row r="361">
@@ -5681,10 +5681,10 @@
         <v>53</v>
       </c>
       <c r="C361" t="n">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="D361" t="n">
-        <v>275770209</v>
+        <v>3098550450</v>
       </c>
     </row>
     <row r="362">
@@ -5695,38 +5695,38 @@
         <v>53</v>
       </c>
       <c r="C362" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D362" t="n">
-        <v>244703448</v>
+        <v>3919140000</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B363" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C363" t="n">
-        <v>2014</v>
+        <v>2000</v>
       </c>
       <c r="D363" t="n">
-        <v>245779975</v>
+        <v>532697836</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B364" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C364" t="n">
-        <v>2015</v>
+        <v>2001</v>
       </c>
       <c r="D364" t="n">
-        <v>254760000</v>
+        <v>684785718</v>
       </c>
     </row>
     <row r="365">
@@ -5737,10 +5737,10 @@
         <v>55</v>
       </c>
       <c r="C365" t="n">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="D365" t="n">
-        <v>41485024</v>
+        <v>756886837</v>
       </c>
     </row>
     <row r="366">
@@ -5751,10 +5751,10 @@
         <v>55</v>
       </c>
       <c r="C366" t="n">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="D366" t="n">
-        <v>69964303</v>
+        <v>1105810693</v>
       </c>
     </row>
     <row r="367">
@@ -5765,10 +5765,10 @@
         <v>55</v>
       </c>
       <c r="C367" t="n">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="D367" t="n">
-        <v>115180398</v>
+        <v>530867715</v>
       </c>
     </row>
     <row r="368">
@@ -5779,10 +5779,10 @@
         <v>55</v>
       </c>
       <c r="C368" t="n">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="D368" t="n">
-        <v>97226595</v>
+        <v>541812523</v>
       </c>
     </row>
     <row r="369">
@@ -5793,10 +5793,10 @@
         <v>55</v>
       </c>
       <c r="C369" t="n">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="D369" t="n">
-        <v>73680805</v>
+        <v>813333300</v>
       </c>
     </row>
     <row r="370">
@@ -5807,10 +5807,10 @@
         <v>55</v>
       </c>
       <c r="C370" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="D370" t="n">
-        <v>74756703</v>
+        <v>2340375297</v>
       </c>
     </row>
     <row r="371">
@@ -5821,10 +5821,10 @@
         <v>55</v>
       </c>
       <c r="C371" t="n">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="D371" t="n">
-        <v>96966589</v>
+        <v>1162956904</v>
       </c>
     </row>
     <row r="372">
@@ -5835,10 +5835,10 @@
         <v>55</v>
       </c>
       <c r="C372" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="D372" t="n">
-        <v>104727702</v>
+        <v>898801431</v>
       </c>
     </row>
     <row r="373">
@@ -5849,10 +5849,10 @@
         <v>55</v>
       </c>
       <c r="C373" t="n">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="D373" t="n">
-        <v>146932364</v>
+        <v>388962088</v>
       </c>
     </row>
     <row r="374">
@@ -5863,10 +5863,10 @@
         <v>55</v>
       </c>
       <c r="C374" t="n">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="D374" t="n">
-        <v>204494298</v>
+        <v>635357639</v>
       </c>
     </row>
     <row r="375">
@@ -5877,10 +5877,10 @@
         <v>55</v>
       </c>
       <c r="C375" t="n">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="D375" t="n">
-        <v>155623508</v>
+        <v>687521917</v>
       </c>
     </row>
     <row r="376">
@@ -5891,10 +5891,10 @@
         <v>55</v>
       </c>
       <c r="C376" t="n">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="D376" t="n">
-        <v>147645916</v>
+        <v>4863986342</v>
       </c>
     </row>
     <row r="377">
@@ -5905,10 +5905,10 @@
         <v>55</v>
       </c>
       <c r="C377" t="n">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="D377" t="n">
-        <v>162806226</v>
+        <v>4557675421</v>
       </c>
     </row>
     <row r="378">
@@ -5919,10 +5919,10 @@
         <v>55</v>
       </c>
       <c r="C378" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D378" t="n">
-        <v>170812832</v>
+        <v>4381370000</v>
       </c>
     </row>
   </sheetData>
